--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_11_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_11_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1704517.129407164</v>
+        <v>1674226.100424442</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5950810.205832671</v>
+        <v>5950810.205832678</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6251091.318972463</v>
+        <v>6251091.31897246</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7845580.61345545</v>
+        <v>7845580.613455448</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -679,38 +679,38 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0.5096686531243394</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5096686531243404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,73 +737,73 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>10.5193474360557</v>
+      </c>
+      <c r="U3" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="F3" t="n">
-        <v>10.5193474360557</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.5096686531243404</v>
       </c>
       <c r="F5" t="n">
-        <v>10.5193474360557</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="I6" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="S6" t="n">
-        <v>11.94294668035388</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>10.5193474360557</v>
-      </c>
-      <c r="W7" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="X7" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.5096686531243404</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1220,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1302,58 +1302,58 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="G10" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>10.5193474360557</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="R10" t="n">
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>272.7132088240853</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>24.84313702631801</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
         <v>410.0096787829314</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>151.1877507841112</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>126.63893338058</v>
       </c>
       <c r="H12" t="n">
-        <v>91.19012767173828</v>
+        <v>91.19012767173827</v>
       </c>
       <c r="I12" t="n">
-        <v>40.0760478450364</v>
+        <v>40.07604784503639</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.374591662540446</v>
+        <v>9.374591662540425</v>
       </c>
       <c r="S12" t="n">
         <v>136.3694633427392</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5579452058188</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>151.7988405018876</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>30.69854771281723</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>192.4412458770671</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.4434871155996</v>
       </c>
       <c r="H14" t="n">
-        <v>314.136721391124</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>113.2811119331022</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>215.551472561587</v>
+        <v>29.18945961371154</v>
       </c>
       <c r="U14" t="n">
-        <v>230.1870426097162</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>126.63893338058</v>
       </c>
       <c r="H15" t="n">
-        <v>91.19012767173828</v>
+        <v>91.19012767173827</v>
       </c>
       <c r="I15" t="n">
-        <v>40.0760478450364</v>
+        <v>40.07604784503639</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.374591662540432</v>
+        <v>9.374591662540425</v>
       </c>
       <c r="S15" t="n">
         <v>136.3694633427392</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>181.719814997536</v>
+        <v>95.98411543066499</v>
       </c>
       <c r="C16" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>151.5411742405149</v>
@@ -1776,13 +1776,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5579452058188</v>
       </c>
       <c r="H16" t="n">
-        <v>106.9985022971624</v>
+        <v>151.7988405018876</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>117.7837546691494</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y16" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>95.67486713735101</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>272.1832702194001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>314.136721391124</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>113.2811119331022</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>215.551472561587</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>126.63893338058</v>
       </c>
       <c r="H18" t="n">
-        <v>91.19012767173828</v>
+        <v>91.19012767173827</v>
       </c>
       <c r="I18" t="n">
-        <v>40.0760478450364</v>
+        <v>40.07604784503639</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.374591662540432</v>
+        <v>9.374591662540425</v>
       </c>
       <c r="S18" t="n">
         <v>136.3694633427392</v>
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>53.7709439249042</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>126.0329067223967</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>151.7988405018876</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>199.8509778158173</v>
       </c>
       <c r="T19" t="n">
         <v>227.9733019088003</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>227.8498899538162</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>347.1726154652165</v>
       </c>
       <c r="E20" t="n">
         <v>390.8378626949542</v>
@@ -2098,7 +2098,7 @@
         <v>410.4434871155996</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>314.136721391124</v>
       </c>
       <c r="I20" t="n">
         <v>113.2811119331022</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>151.1877507841112</v>
       </c>
       <c r="T20" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>252.2165261579655</v>
@@ -2177,10 +2177,10 @@
         <v>126.63893338058</v>
       </c>
       <c r="H21" t="n">
-        <v>91.19012767173828</v>
+        <v>91.19012767173827</v>
       </c>
       <c r="I21" t="n">
-        <v>40.0760478450364</v>
+        <v>40.07604784503639</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.374591662540432</v>
+        <v>9.374591662540425</v>
       </c>
       <c r="S21" t="n">
         <v>136.3694633427392</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>144.1842440371888</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9733019088003</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>97.93075712592515</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>348.621469068327</v>
       </c>
       <c r="E23" t="n">
         <v>390.8378626949542</v>
@@ -2335,10 +2335,10 @@
         <v>410.4434871155996</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>314.136721391124</v>
       </c>
       <c r="I23" t="n">
-        <v>113.2811119331022</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>151.1877507841112</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2165261579655</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>309.9416216085305</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>126.63893338058</v>
       </c>
       <c r="H24" t="n">
-        <v>91.19012767173828</v>
+        <v>91.19012767173827</v>
       </c>
       <c r="I24" t="n">
-        <v>40.0760478450364</v>
+        <v>40.07604784503639</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.374591662540432</v>
+        <v>9.374591662540425</v>
       </c>
       <c r="S24" t="n">
         <v>136.3694633427392</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5579452058188</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>151.7988405018876</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>122.5339189574214</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>42.58904707043897</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>227.9733019088003</v>
       </c>
       <c r="U25" t="n">
-        <v>171.626169363766</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
         <v>378.1144210805207</v>
@@ -2563,19 +2563,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>410.4434871155996</v>
+        <v>97.8736445607709</v>
       </c>
       <c r="H26" t="n">
-        <v>314.136721391124</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>113.2811119331022</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>215.551472561587</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0131539107884</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
         <v>378.2098390737216</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>71.7770590040228</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5579452058188</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>199.8509778158173</v>
       </c>
       <c r="T28" t="n">
         <v>227.9733019088003</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>91.22480797168872</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
         <v>378.1144210805207</v>
@@ -2800,19 +2800,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>374.2618284178398</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>410.4434871155996</v>
+        <v>356.9349070693983</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>314.136721391124</v>
       </c>
       <c r="I29" t="n">
-        <v>113.2811119331022</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>215.551472561587</v>
       </c>
       <c r="U29" t="n">
-        <v>252.2165261579655</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -2949,31 +2949,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>70.92761061310242</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5579452058188</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>151.7988405018876</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>65.80407241185183</v>
       </c>
       <c r="J31" t="n">
-        <v>11.90342624128609</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>199.8509778158173</v>
       </c>
       <c r="T31" t="n">
         <v>227.9733019088003</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
         <v>378.1144210805207</v>
@@ -3043,10 +3043,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>410.4434871155996</v>
+        <v>325.9915313694804</v>
       </c>
       <c r="H32" t="n">
-        <v>314.136721391124</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>252.2165261579655</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>235.5657487027828</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
         <v>389.6064368699203</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>178.1830795101794</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5579452058188</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>104.0044037734204</v>
       </c>
       <c r="I34" t="n">
-        <v>122.5339189574214</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9733019088003</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>284.2816495190633</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
         <v>283.2948374677749</v>
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>47.01796435270975</v>
       </c>
       <c r="H35" t="n">
         <v>314.136721391124</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>151.1877507841112</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>262.5270645400125</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,13 +3441,13 @@
         <v>166.5579452058188</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>151.7988405018876</v>
       </c>
       <c r="I37" t="n">
-        <v>122.5339189574214</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.90342624128609</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>199.8509778158173</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9733019088003</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>108.1091156599696</v>
       </c>
       <c r="X37" t="n">
-        <v>131.4753712903344</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,22 +3508,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.4434871155996</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>31.56736145443842</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>150.5467466899374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>79.93555369317747</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>118.030545915287</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
         <v>410.4434871155996</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>83.89888522142863</v>
+        <v>31.56736145443839</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>53.40553315594349</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5579452058188</v>
       </c>
       <c r="H43" t="n">
         <v>151.7988405018876</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>199.8509778158173</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>198.1632359516569</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>378.1144210805207</v>
@@ -3994,10 +3994,10 @@
         <v>410.4434871155996</v>
       </c>
       <c r="H44" t="n">
-        <v>20.17076365823991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>113.2811119331022</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>151.1877507841112</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>67.64344321423303</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>126.63893338058</v>
       </c>
       <c r="H45" t="n">
-        <v>91.19012767173888</v>
+        <v>91.19012767173828</v>
       </c>
       <c r="I45" t="n">
         <v>40.0760478450364</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
         <v>167.9198098429365</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5579452058188</v>
       </c>
       <c r="H46" t="n">
-        <v>151.7988405018876</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>122.5339189574214</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9733019088003</v>
+        <v>12.49273033010962</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>142.7460786844186</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.19338739466986</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="C2" t="n">
-        <v>35.19338739466986</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="D2" t="n">
-        <v>35.19338739466986</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="E2" t="n">
-        <v>35.19338739466986</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="F2" t="n">
-        <v>25.08260074524424</v>
+        <v>13.53383506117399</v>
       </c>
       <c r="G2" t="n">
-        <v>13.01901823983628</v>
+        <v>1.470252555766027</v>
       </c>
       <c r="H2" t="n">
-        <v>13.01901823983628</v>
+        <v>1.470252555766027</v>
       </c>
       <c r="I2" t="n">
         <v>0.9554357344283108</v>
@@ -4333,13 +4333,13 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="K2" t="n">
+        <v>0.9554357344283108</v>
+      </c>
+      <c r="L2" t="n">
         <v>12.3012350807645</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>24.12475229431485</v>
-      </c>
-      <c r="M2" t="n">
-        <v>35.94826950786519</v>
       </c>
       <c r="N2" t="n">
         <v>35.94826950786519</v>
@@ -4357,25 +4357,25 @@
         <v>47.77178672141554</v>
       </c>
       <c r="S2" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T2" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U2" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V2" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W2" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X2" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="Y2" t="n">
-        <v>47.25696990007782</v>
+        <v>35.70820421600757</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.64462171059961</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="C3" t="n">
-        <v>23.64462171059961</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="D3" t="n">
-        <v>23.64462171059961</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="E3" t="n">
-        <v>11.58103920519164</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="F3" t="n">
         <v>0.9554357344283108</v>
@@ -4412,49 +4412,49 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="L3" t="n">
-        <v>12.77895294797866</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="M3" t="n">
-        <v>24.12475229431485</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="N3" t="n">
-        <v>24.12475229431485</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O3" t="n">
         <v>35.94826950786519</v>
       </c>
       <c r="P3" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Q3" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R3" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S3" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T3" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="U3" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="V3" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="W3" t="n">
-        <v>35.70820421600757</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="X3" t="n">
-        <v>35.70820421600757</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="Y3" t="n">
-        <v>35.70820421600757</v>
+        <v>0.9554357344283108</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9554357344283108</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9554357344283108</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9554357344283108</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9554357344283108</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9554357344283108</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9554357344283108</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I4" t="n">
         <v>0.9554357344283108</v>
@@ -4509,31 +4509,31 @@
         <v>47.77178672141554</v>
       </c>
       <c r="Q4" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="R4" t="n">
-        <v>25.08260074524424</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="S4" t="n">
-        <v>13.01901823983628</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="T4" t="n">
-        <v>13.01901823983628</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9554357344283108</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9554357344283108</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9554357344283108</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9554357344283108</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9554357344283108</v>
+        <v>47.77178672141554</v>
       </c>
     </row>
     <row r="5">
@@ -4552,7 +4552,7 @@
         <v>23.64462171059961</v>
       </c>
       <c r="E5" t="n">
-        <v>23.64462171059961</v>
+        <v>23.12980488926189</v>
       </c>
       <c r="F5" t="n">
         <v>13.01901823983628</v>
@@ -4567,25 +4567,25 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J5" t="n">
+        <v>0.9554357344283108</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9554357344283108</v>
+      </c>
+      <c r="L5" t="n">
         <v>12.77895294797866</v>
       </c>
-      <c r="K5" t="n">
-        <v>24.12475229431485</v>
-      </c>
-      <c r="L5" t="n">
-        <v>24.12475229431485</v>
-      </c>
       <c r="M5" t="n">
-        <v>35.94826950786519</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="N5" t="n">
-        <v>35.94826950786519</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="O5" t="n">
         <v>35.94826950786519</v>
       </c>
       <c r="P5" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Q5" t="n">
         <v>47.77178672141554</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="C6" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="D6" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="E6" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="F6" t="n">
-        <v>13.01901823983628</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="G6" t="n">
         <v>13.01901823983628</v>
       </c>
       <c r="H6" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I6" t="n">
         <v>0.9554357344283108</v>
@@ -4655,16 +4655,16 @@
         <v>24.60247016152901</v>
       </c>
       <c r="M6" t="n">
-        <v>24.60247016152901</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="N6" t="n">
-        <v>24.60247016152901</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="O6" t="n">
-        <v>35.94826950786519</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="P6" t="n">
-        <v>47.77178672141554</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="Q6" t="n">
         <v>47.77178672141554</v>
@@ -4673,25 +4673,25 @@
         <v>35.70820421600757</v>
       </c>
       <c r="S6" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="T6" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="U6" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="V6" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="W6" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="X6" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="Y6" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="J7" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9554357344283108</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="M7" t="n">
-        <v>12.77895294797866</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="N7" t="n">
-        <v>24.60247016152901</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="O7" t="n">
         <v>36.42598737507935</v>
@@ -4746,13 +4746,13 @@
         <v>47.77178672141554</v>
       </c>
       <c r="Q7" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="R7" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S7" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T7" t="n">
         <v>35.70820421600757</v>
@@ -4761,16 +4761,16 @@
         <v>35.70820421600757</v>
       </c>
       <c r="V7" t="n">
+        <v>35.70820421600757</v>
+      </c>
+      <c r="W7" t="n">
+        <v>35.70820421600757</v>
+      </c>
+      <c r="X7" t="n">
+        <v>35.70820421600757</v>
+      </c>
+      <c r="Y7" t="n">
         <v>25.08260074524424</v>
-      </c>
-      <c r="W7" t="n">
-        <v>13.01901823983628</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.9554357344283108</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.9554357344283108</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.19338739466986</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="C8" t="n">
-        <v>35.19338739466986</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="D8" t="n">
-        <v>35.19338739466986</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="E8" t="n">
-        <v>35.19338739466986</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="F8" t="n">
         <v>25.08260074524424</v>
@@ -4816,40 +4816,40 @@
         <v>24.60247016152901</v>
       </c>
       <c r="N8" t="n">
-        <v>36.42598737507935</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O8" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="P8" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="Q8" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R8" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="S8" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="T8" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="U8" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="V8" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="W8" t="n">
-        <v>35.19338739466986</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="X8" t="n">
-        <v>35.19338739466986</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Y8" t="n">
-        <v>35.19338739466986</v>
+        <v>47.77178672141554</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9554357344283108</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9554357344283108</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9554357344283108</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9554357344283108</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9554357344283108</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="H9" t="n">
         <v>0.9554357344283108</v>
@@ -4883,19 +4883,19 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J9" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="K9" t="n">
-        <v>24.12475229431485</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="L9" t="n">
-        <v>24.12475229431485</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="M9" t="n">
-        <v>24.12475229431485</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="N9" t="n">
-        <v>24.12475229431485</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="O9" t="n">
         <v>24.12475229431485</v>
@@ -4907,28 +4907,28 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R9" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="S9" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="T9" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="U9" t="n">
-        <v>11.58103920519164</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="V9" t="n">
-        <v>0.9554357344283108</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="W9" t="n">
-        <v>0.9554357344283108</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="X9" t="n">
-        <v>0.9554357344283108</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.9554357344283108</v>
+        <v>47.77178672141554</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="C10" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="D10" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="E10" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="F10" t="n">
-        <v>11.58103920519164</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9554357344283108</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="J10" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="L10" t="n">
         <v>12.3012350807645</v>
       </c>
       <c r="M10" t="n">
-        <v>12.3012350807645</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="N10" t="n">
         <v>24.12475229431485</v>
@@ -4983,31 +4983,31 @@
         <v>47.77178672141554</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.70820421600757</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="R10" t="n">
-        <v>23.64462171059961</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="S10" t="n">
-        <v>23.64462171059961</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="T10" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="U10" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="V10" t="n">
-        <v>23.64462171059961</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="W10" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="X10" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="Y10" t="n">
-        <v>23.64462171059961</v>
+        <v>13.01901823983628</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1293.05788688915</v>
+        <v>1565.393451907002</v>
       </c>
       <c r="C11" t="n">
-        <v>1293.05788688915</v>
+        <v>1289.925564205906</v>
       </c>
       <c r="D11" t="n">
-        <v>920.2339221163741</v>
+        <v>1289.925564205906</v>
       </c>
       <c r="E11" t="n">
         <v>895.1398443120124</v>
@@ -5038,28 +5038,28 @@
         <v>163.6788340351889</v>
       </c>
       <c r="I11" t="n">
-        <v>49.25346844619677</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J11" t="n">
-        <v>49.25346844619677</v>
+        <v>247.2441213907261</v>
       </c>
       <c r="K11" t="n">
-        <v>478.2233513049918</v>
+        <v>676.2140042495212</v>
       </c>
       <c r="L11" t="n">
-        <v>522.8384468758211</v>
+        <v>720.8290998203505</v>
       </c>
       <c r="M11" t="n">
-        <v>1132.350118897506</v>
+        <v>796.2034079748279</v>
       </c>
       <c r="N11" t="n">
-        <v>1741.861790919191</v>
+        <v>1405.715079996513</v>
       </c>
       <c r="O11" t="n">
-        <v>1806.892189170456</v>
+        <v>1766.31083759586</v>
       </c>
       <c r="P11" t="n">
-        <v>2248.517003765271</v>
+        <v>2207.935652190675</v>
       </c>
       <c r="Q11" t="n">
         <v>2462.673422309838</v>
@@ -5068,25 +5068,25 @@
         <v>2462.673422309838</v>
       </c>
       <c r="S11" t="n">
-        <v>2462.673422309838</v>
+        <v>2309.958522527907</v>
       </c>
       <c r="T11" t="n">
-        <v>2462.673422309838</v>
+        <v>2309.958522527907</v>
       </c>
       <c r="U11" t="n">
-        <v>2462.673422309838</v>
+        <v>2309.958522527907</v>
       </c>
       <c r="V11" t="n">
-        <v>2462.673422309838</v>
+        <v>2309.958522527907</v>
       </c>
       <c r="W11" t="n">
-        <v>2462.673422309838</v>
+        <v>1947.423592385509</v>
       </c>
       <c r="X11" t="n">
-        <v>2080.643281831331</v>
+        <v>1565.393451907002</v>
       </c>
       <c r="Y11" t="n">
-        <v>1687.10142640717</v>
+        <v>1565.393451907002</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>892.0277972157136</v>
+        <v>892.0277972157131</v>
       </c>
       <c r="C12" t="n">
-        <v>730.3241244566684</v>
+        <v>730.324124456668</v>
       </c>
       <c r="D12" t="n">
-        <v>591.4854874468804</v>
+        <v>591.4854874468801</v>
       </c>
       <c r="E12" t="n">
-        <v>444.4574775037515</v>
+        <v>444.4574775037513</v>
       </c>
       <c r="F12" t="n">
-        <v>309.763679453626</v>
+        <v>309.7636794536256</v>
       </c>
       <c r="G12" t="n">
         <v>181.8455649277874</v>
       </c>
       <c r="H12" t="n">
-        <v>89.73432485532445</v>
+        <v>89.73432485532442</v>
       </c>
       <c r="I12" t="n">
-        <v>49.25346844619677</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J12" t="n">
         <v>184.5476517718283</v>
       </c>
       <c r="K12" t="n">
-        <v>201.9268193764628</v>
+        <v>542.2935794116515</v>
       </c>
       <c r="L12" t="n">
-        <v>262.9323196319494</v>
+        <v>1080.57060407269</v>
       </c>
       <c r="M12" t="n">
-        <v>872.4439916536344</v>
+        <v>1574.551849460515</v>
       </c>
       <c r="N12" t="n">
-        <v>1481.955663675319</v>
+        <v>1675.477330940384</v>
       </c>
       <c r="O12" t="n">
-        <v>2063.129983146352</v>
+        <v>1749.750845502266</v>
       </c>
       <c r="P12" t="n">
         <v>2203.515355923823</v>
@@ -5144,7 +5144,7 @@
         <v>2462.673422309838</v>
       </c>
       <c r="R12" t="n">
-        <v>2453.204137802222</v>
+        <v>2453.204137802221</v>
       </c>
       <c r="S12" t="n">
         <v>2315.457205132788</v>
@@ -5162,10 +5162,10 @@
         <v>1441.885554469601</v>
       </c>
       <c r="X12" t="n">
-        <v>1243.968566347396</v>
+        <v>1243.968566347395</v>
       </c>
       <c r="Y12" t="n">
-        <v>1051.447239996975</v>
+        <v>1051.447239996974</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.0553795240845</v>
+        <v>233.5942646226663</v>
       </c>
       <c r="C13" t="n">
-        <v>675.0553795240845</v>
+        <v>233.5942646226663</v>
       </c>
       <c r="D13" t="n">
-        <v>521.9834863518472</v>
+        <v>233.5942646226663</v>
       </c>
       <c r="E13" t="n">
-        <v>369.974472113166</v>
+        <v>233.5942646226663</v>
       </c>
       <c r="F13" t="n">
-        <v>217.4938171389431</v>
+        <v>233.5942646226663</v>
       </c>
       <c r="G13" t="n">
-        <v>49.25346844619677</v>
+        <v>233.5942646226663</v>
       </c>
       <c r="H13" t="n">
-        <v>49.25346844619677</v>
+        <v>80.2621024995475</v>
       </c>
       <c r="I13" t="n">
-        <v>49.25346844619677</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J13" t="n">
-        <v>49.25346844619677</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="K13" t="n">
         <v>160.2207914107512</v>
@@ -5214,7 +5214,7 @@
         <v>802.5193766803969</v>
       </c>
       <c r="O13" t="n">
-        <v>995.1021175735183</v>
+        <v>995.1021175735184</v>
       </c>
       <c r="P13" t="n">
         <v>1138.605746134653</v>
@@ -5232,19 +5232,19 @@
         <v>1156.593657701994</v>
       </c>
       <c r="U13" t="n">
-        <v>869.4404763696068</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="V13" t="n">
-        <v>869.4404763696068</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="W13" t="n">
-        <v>675.0553795240845</v>
+        <v>870.4372562193932</v>
       </c>
       <c r="X13" t="n">
-        <v>675.0553795240845</v>
+        <v>639.184792114769</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.0553795240845</v>
+        <v>417.1496333070461</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1649.897567751982</v>
+        <v>1645.603724727544</v>
       </c>
       <c r="C14" t="n">
-        <v>1267.963809084789</v>
+        <v>1645.603724727544</v>
       </c>
       <c r="D14" t="n">
-        <v>895.1398443120124</v>
+        <v>1272.779759954768</v>
       </c>
       <c r="E14" t="n">
-        <v>895.1398443120124</v>
+        <v>877.9940400608746</v>
       </c>
       <c r="F14" t="n">
-        <v>480.9886536221828</v>
+        <v>463.8428493710448</v>
       </c>
       <c r="G14" t="n">
-        <v>480.9886536221828</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="H14" t="n">
-        <v>163.6788340351889</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="I14" t="n">
-        <v>49.25346844619677</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J14" t="n">
         <v>247.2441213907261</v>
       </c>
       <c r="K14" t="n">
-        <v>434.2493804711745</v>
+        <v>676.2140042495212</v>
       </c>
       <c r="L14" t="n">
-        <v>1016.394459168434</v>
+        <v>1258.35908294678</v>
       </c>
       <c r="M14" t="n">
-        <v>1091.768767322911</v>
+        <v>1333.733391101258</v>
       </c>
       <c r="N14" t="n">
-        <v>1701.280439344596</v>
+        <v>1465.928376178605</v>
       </c>
       <c r="O14" t="n">
-        <v>1766.310837595861</v>
+        <v>2021.048607715023</v>
       </c>
       <c r="P14" t="n">
-        <v>2207.935652190675</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="Q14" t="n">
         <v>2462.673422309838</v>
@@ -5308,22 +5308,22 @@
         <v>2462.673422309838</v>
       </c>
       <c r="T14" t="n">
-        <v>2244.944662146619</v>
+        <v>2433.189119669725</v>
       </c>
       <c r="U14" t="n">
-        <v>2012.432497894381</v>
+        <v>2433.189119669725</v>
       </c>
       <c r="V14" t="n">
-        <v>2012.432497894381</v>
+        <v>2433.189119669725</v>
       </c>
       <c r="W14" t="n">
-        <v>1649.897567751982</v>
+        <v>2433.189119669725</v>
       </c>
       <c r="X14" t="n">
-        <v>1649.897567751982</v>
+        <v>2433.189119669725</v>
       </c>
       <c r="Y14" t="n">
-        <v>1649.897567751982</v>
+        <v>2039.647264245563</v>
       </c>
     </row>
     <row r="15">
@@ -5333,55 +5333,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>892.0277972157136</v>
+        <v>892.0277972157133</v>
       </c>
       <c r="C15" t="n">
-        <v>730.3241244566684</v>
+        <v>730.3241244566681</v>
       </c>
       <c r="D15" t="n">
-        <v>591.4854874468804</v>
+        <v>591.4854874468801</v>
       </c>
       <c r="E15" t="n">
-        <v>444.4574775037515</v>
+        <v>444.4574775037513</v>
       </c>
       <c r="F15" t="n">
-        <v>309.763679453626</v>
+        <v>309.7636794536257</v>
       </c>
       <c r="G15" t="n">
-        <v>181.8455649277876</v>
+        <v>181.8455649277873</v>
       </c>
       <c r="H15" t="n">
-        <v>89.73432485532445</v>
+        <v>89.73432485532442</v>
       </c>
       <c r="I15" t="n">
-        <v>49.25346844619677</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J15" t="n">
         <v>184.5476517718283</v>
       </c>
       <c r="K15" t="n">
-        <v>201.9268193764628</v>
+        <v>542.2935794116515</v>
       </c>
       <c r="L15" t="n">
-        <v>472.1468572649817</v>
+        <v>1080.57060407269</v>
       </c>
       <c r="M15" t="n">
-        <v>559.0648540095483</v>
+        <v>1690.082276094375</v>
       </c>
       <c r="N15" t="n">
-        <v>1168.576526031233</v>
+        <v>1791.007757574243</v>
       </c>
       <c r="O15" t="n">
-        <v>1749.750845502266</v>
+        <v>2372.182077045276</v>
       </c>
       <c r="P15" t="n">
-        <v>2203.515355923823</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="Q15" t="n">
         <v>2462.673422309838</v>
       </c>
       <c r="R15" t="n">
-        <v>2453.204137802222</v>
+        <v>2453.204137802221</v>
       </c>
       <c r="S15" t="n">
         <v>2315.457205132788</v>
@@ -5399,10 +5399,10 @@
         <v>1441.885554469601</v>
       </c>
       <c r="X15" t="n">
-        <v>1243.968566347396</v>
+        <v>1243.968566347395</v>
       </c>
       <c r="Y15" t="n">
-        <v>1051.447239996975</v>
+        <v>1051.447239996974</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>632.029640645094</v>
+        <v>828.3875416472032</v>
       </c>
       <c r="C16" t="n">
-        <v>462.4136711067742</v>
+        <v>828.3875416472032</v>
       </c>
       <c r="D16" t="n">
-        <v>309.3417779345369</v>
+        <v>675.3156484749659</v>
       </c>
       <c r="E16" t="n">
-        <v>157.3327636958558</v>
+        <v>523.3066342362847</v>
       </c>
       <c r="F16" t="n">
-        <v>157.3327636958558</v>
+        <v>370.8259792620619</v>
       </c>
       <c r="G16" t="n">
-        <v>157.3327636958558</v>
+        <v>202.5856305693155</v>
       </c>
       <c r="H16" t="n">
-        <v>49.25346844619677</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="I16" t="n">
-        <v>49.25346844619677</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J16" t="n">
-        <v>49.25346844619677</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="K16" t="n">
         <v>160.2207914107512</v>
@@ -5451,7 +5451,7 @@
         <v>802.5193766803969</v>
       </c>
       <c r="O16" t="n">
-        <v>995.1021175735183</v>
+        <v>995.1021175735184</v>
       </c>
       <c r="P16" t="n">
         <v>1138.605746134653</v>
@@ -5460,28 +5460,28 @@
         <v>1156.593657701994</v>
       </c>
       <c r="R16" t="n">
-        <v>1037.620168137197</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="S16" t="n">
-        <v>1037.620168137197</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="T16" t="n">
-        <v>1037.620168137197</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="U16" t="n">
-        <v>1037.620168137197</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="V16" t="n">
-        <v>1037.620168137197</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="W16" t="n">
-        <v>1037.620168137197</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="X16" t="n">
-        <v>1037.620168137197</v>
+        <v>925.3411935973699</v>
       </c>
       <c r="Y16" t="n">
-        <v>815.5850093294738</v>
+        <v>925.3411935973699</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>922.6142269440008</v>
+        <v>755.9212498033951</v>
       </c>
       <c r="C17" t="n">
-        <v>540.6804682768081</v>
+        <v>755.9212498033951</v>
       </c>
       <c r="D17" t="n">
-        <v>444.0391883400899</v>
+        <v>755.9212498033951</v>
       </c>
       <c r="E17" t="n">
-        <v>49.25346844619677</v>
+        <v>755.9212498033951</v>
       </c>
       <c r="F17" t="n">
-        <v>49.25346844619677</v>
+        <v>755.9212498033951</v>
       </c>
       <c r="G17" t="n">
-        <v>49.25346844619677</v>
+        <v>480.9886536221828</v>
       </c>
       <c r="H17" t="n">
-        <v>49.25346844619677</v>
+        <v>163.6788340351889</v>
       </c>
       <c r="I17" t="n">
-        <v>49.25346844619677</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J17" t="n">
-        <v>49.25346844619677</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="K17" t="n">
-        <v>61.04820532590276</v>
+        <v>478.2233513049918</v>
       </c>
       <c r="L17" t="n">
-        <v>643.1932840231618</v>
+        <v>1060.368430002251</v>
       </c>
       <c r="M17" t="n">
-        <v>1252.704956044847</v>
+        <v>1669.880102023936</v>
       </c>
       <c r="N17" t="n">
-        <v>1625.345543476141</v>
+        <v>2279.39177404562</v>
       </c>
       <c r="O17" t="n">
-        <v>2180.465775012559</v>
+        <v>2435.203545131722</v>
       </c>
       <c r="P17" t="n">
-        <v>2207.935652190675</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="Q17" t="n">
         <v>2462.673422309838</v>
@@ -5542,25 +5542,25 @@
         <v>2462.673422309838</v>
       </c>
       <c r="S17" t="n">
-        <v>2309.958522527908</v>
+        <v>2309.958522527907</v>
       </c>
       <c r="T17" t="n">
-        <v>2092.229762364689</v>
+        <v>2092.229762364688</v>
       </c>
       <c r="U17" t="n">
-        <v>2092.229762364689</v>
+        <v>1837.465594528359</v>
       </c>
       <c r="V17" t="n">
-        <v>2092.229762364689</v>
+        <v>1500.486320424301</v>
       </c>
       <c r="W17" t="n">
-        <v>2092.229762364689</v>
+        <v>1137.951390281902</v>
       </c>
       <c r="X17" t="n">
-        <v>1710.199621886182</v>
+        <v>755.9212498033951</v>
       </c>
       <c r="Y17" t="n">
-        <v>1316.65776646202</v>
+        <v>755.9212498033951</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>892.0277972157145</v>
+        <v>892.0277972157133</v>
       </c>
       <c r="C18" t="n">
-        <v>730.3241244566693</v>
+        <v>730.3241244566681</v>
       </c>
       <c r="D18" t="n">
-        <v>591.4854874468813</v>
+        <v>591.4854874468801</v>
       </c>
       <c r="E18" t="n">
-        <v>444.4574775037524</v>
+        <v>444.4574775037513</v>
       </c>
       <c r="F18" t="n">
-        <v>309.7636794536269</v>
+        <v>309.7636794536257</v>
       </c>
       <c r="G18" t="n">
-        <v>181.845564927788</v>
+        <v>181.8455649277873</v>
       </c>
       <c r="H18" t="n">
-        <v>89.73432485532476</v>
+        <v>89.73432485532442</v>
       </c>
       <c r="I18" t="n">
-        <v>49.25346844619677</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J18" t="n">
-        <v>49.25346844619677</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="K18" t="n">
-        <v>66.63263605083129</v>
+        <v>66.63263605083131</v>
       </c>
       <c r="L18" t="n">
-        <v>472.1468572649817</v>
+        <v>359.4147652274621</v>
       </c>
       <c r="M18" t="n">
-        <v>559.0648540095483</v>
+        <v>968.9264372491469</v>
       </c>
       <c r="N18" t="n">
-        <v>1168.576526031233</v>
+        <v>1578.438109270832</v>
       </c>
       <c r="O18" t="n">
-        <v>1749.750845502266</v>
+        <v>2159.612428741865</v>
       </c>
       <c r="P18" t="n">
         <v>2203.515355923823</v>
@@ -5618,28 +5618,28 @@
         <v>2462.673422309838</v>
       </c>
       <c r="R18" t="n">
-        <v>2453.204137802222</v>
+        <v>2453.204137802221</v>
       </c>
       <c r="S18" t="n">
-        <v>2315.457205132789</v>
+        <v>2315.457205132788</v>
       </c>
       <c r="T18" t="n">
-        <v>2130.038523357353</v>
+        <v>2130.038523357352</v>
       </c>
       <c r="U18" t="n">
-        <v>1911.597045787958</v>
+        <v>1911.597045787957</v>
       </c>
       <c r="V18" t="n">
-        <v>1683.201423236292</v>
+        <v>1683.201423236291</v>
       </c>
       <c r="W18" t="n">
-        <v>1441.885554469602</v>
+        <v>1441.885554469601</v>
       </c>
       <c r="X18" t="n">
-        <v>1243.968566347397</v>
+        <v>1243.968566347395</v>
       </c>
       <c r="Y18" t="n">
-        <v>1051.447239996975</v>
+        <v>1051.447239996974</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>408.9087295806272</v>
+        <v>176.5594348324561</v>
       </c>
       <c r="C19" t="n">
-        <v>354.5946448079967</v>
+        <v>176.5594348324561</v>
       </c>
       <c r="D19" t="n">
-        <v>354.5946448079967</v>
+        <v>176.5594348324561</v>
       </c>
       <c r="E19" t="n">
-        <v>202.5856305693155</v>
+        <v>176.5594348324561</v>
       </c>
       <c r="F19" t="n">
-        <v>202.5856305693155</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="G19" t="n">
-        <v>202.5856305693155</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="H19" t="n">
-        <v>49.25346844619677</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="I19" t="n">
-        <v>49.25346844619677</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J19" t="n">
-        <v>49.25346844619677</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="K19" t="n">
         <v>160.2207914107512</v>
@@ -5688,7 +5688,7 @@
         <v>802.5193766803969</v>
       </c>
       <c r="O19" t="n">
-        <v>995.1021175735183</v>
+        <v>995.1021175735184</v>
       </c>
       <c r="P19" t="n">
         <v>1138.605746134653</v>
@@ -5700,25 +5700,25 @@
         <v>1156.593657701994</v>
       </c>
       <c r="S19" t="n">
-        <v>1156.593657701994</v>
+        <v>954.7239831405624</v>
       </c>
       <c r="T19" t="n">
-        <v>926.3175951678523</v>
+        <v>724.4479206064207</v>
       </c>
       <c r="U19" t="n">
-        <v>926.3175951678523</v>
+        <v>437.2947392740335</v>
       </c>
       <c r="V19" t="n">
-        <v>926.3175951678523</v>
+        <v>176.5594348324561</v>
       </c>
       <c r="W19" t="n">
-        <v>640.1611936852514</v>
+        <v>176.5594348324561</v>
       </c>
       <c r="X19" t="n">
-        <v>408.9087295806272</v>
+        <v>176.5594348324561</v>
       </c>
       <c r="Y19" t="n">
-        <v>408.9087295806272</v>
+        <v>176.5594348324561</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1760.029090316536</v>
+        <v>2055.194354691579</v>
       </c>
       <c r="C20" t="n">
-        <v>1760.029090316536</v>
+        <v>2055.194354691579</v>
       </c>
       <c r="D20" t="n">
-        <v>1387.20512554376</v>
+        <v>1704.514945130754</v>
       </c>
       <c r="E20" t="n">
-        <v>992.4194056498668</v>
+        <v>1309.729225236861</v>
       </c>
       <c r="F20" t="n">
-        <v>578.2682149600371</v>
+        <v>895.5780345470309</v>
       </c>
       <c r="G20" t="n">
-        <v>163.6788340351889</v>
+        <v>480.9886536221828</v>
       </c>
       <c r="H20" t="n">
         <v>163.6788340351889</v>
       </c>
       <c r="I20" t="n">
-        <v>49.25346844619677</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J20" t="n">
-        <v>49.25346844619677</v>
+        <v>247.2441213907261</v>
       </c>
       <c r="K20" t="n">
-        <v>61.04820532590276</v>
+        <v>676.2140042495212</v>
       </c>
       <c r="L20" t="n">
-        <v>105.6633008967321</v>
+        <v>1258.35908294678</v>
       </c>
       <c r="M20" t="n">
-        <v>715.174972918417</v>
+        <v>1333.733391101258</v>
       </c>
       <c r="N20" t="n">
-        <v>1324.686644940102</v>
+        <v>1943.245063122943</v>
       </c>
       <c r="O20" t="n">
-        <v>1879.80687647652</v>
+        <v>2021.048607715023</v>
       </c>
       <c r="P20" t="n">
-        <v>2321.431691071335</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="Q20" t="n">
         <v>2462.673422309838</v>
@@ -5779,25 +5779,25 @@
         <v>2462.673422309838</v>
       </c>
       <c r="S20" t="n">
-        <v>2462.673422309838</v>
+        <v>2309.958522527907</v>
       </c>
       <c r="T20" t="n">
-        <v>2244.944662146619</v>
+        <v>2309.958522527907</v>
       </c>
       <c r="U20" t="n">
-        <v>1990.18049431029</v>
+        <v>2055.194354691579</v>
       </c>
       <c r="V20" t="n">
-        <v>1990.18049431029</v>
+        <v>2055.194354691579</v>
       </c>
       <c r="W20" t="n">
-        <v>1990.18049431029</v>
+        <v>2055.194354691579</v>
       </c>
       <c r="X20" t="n">
-        <v>1990.18049431029</v>
+        <v>2055.194354691579</v>
       </c>
       <c r="Y20" t="n">
-        <v>1990.18049431029</v>
+        <v>2055.194354691579</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>892.0277972157131</v>
+        <v>892.0277972157133</v>
       </c>
       <c r="C21" t="n">
-        <v>730.324124456668</v>
+        <v>730.3241244566681</v>
       </c>
       <c r="D21" t="n">
-        <v>591.4854874468799</v>
+        <v>591.4854874468801</v>
       </c>
       <c r="E21" t="n">
-        <v>444.4574775037511</v>
+        <v>444.4574775037513</v>
       </c>
       <c r="F21" t="n">
-        <v>309.7636794536255</v>
+        <v>309.7636794536257</v>
       </c>
       <c r="G21" t="n">
-        <v>181.8455649277871</v>
+        <v>181.8455649277873</v>
       </c>
       <c r="H21" t="n">
-        <v>89.73432485532445</v>
+        <v>89.73432485532442</v>
       </c>
       <c r="I21" t="n">
-        <v>49.25346844619677</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J21" t="n">
-        <v>49.25346844619677</v>
+        <v>184.5476517718283</v>
       </c>
       <c r="K21" t="n">
-        <v>66.63263605083129</v>
+        <v>542.2935794116515</v>
       </c>
       <c r="L21" t="n">
-        <v>604.9096607118697</v>
+        <v>980.7330478067975</v>
       </c>
       <c r="M21" t="n">
-        <v>1214.421332733555</v>
+        <v>1067.651044551364</v>
       </c>
       <c r="N21" t="n">
-        <v>1823.93300475524</v>
+        <v>1168.576526031233</v>
       </c>
       <c r="O21" t="n">
-        <v>2008.908911888281</v>
+        <v>1749.750845502266</v>
       </c>
       <c r="P21" t="n">
-        <v>2462.673422309838</v>
+        <v>2203.515355923823</v>
       </c>
       <c r="Q21" t="n">
         <v>2462.673422309838</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1355.333233054041</v>
+        <v>194.8941189888118</v>
       </c>
       <c r="C22" t="n">
-        <v>1355.333233054041</v>
+        <v>194.8941189888118</v>
       </c>
       <c r="D22" t="n">
-        <v>1355.333233054041</v>
+        <v>194.8941189888118</v>
       </c>
       <c r="E22" t="n">
-        <v>1355.333233054041</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="F22" t="n">
-        <v>1355.333233054041</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="G22" t="n">
-        <v>1355.333233054041</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="H22" t="n">
-        <v>1355.333233054041</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="I22" t="n">
-        <v>1355.333233054041</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J22" t="n">
-        <v>1355.333233054041</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="K22" t="n">
-        <v>1466.300556018595</v>
+        <v>160.2207914107512</v>
       </c>
       <c r="L22" t="n">
-        <v>1665.905813305116</v>
+        <v>359.8260486972724</v>
       </c>
       <c r="M22" t="n">
-        <v>1888.279017444997</v>
+        <v>582.1992528371532</v>
       </c>
       <c r="N22" t="n">
-        <v>2108.599141288241</v>
+        <v>802.5193766803969</v>
       </c>
       <c r="O22" t="n">
-        <v>2301.181882181362</v>
+        <v>995.1021175735184</v>
       </c>
       <c r="P22" t="n">
-        <v>2444.685510742497</v>
+        <v>1138.605746134653</v>
       </c>
       <c r="Q22" t="n">
-        <v>2462.673422309838</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="R22" t="n">
-        <v>2462.673422309838</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="S22" t="n">
-        <v>2462.673422309838</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="T22" t="n">
-        <v>2232.397359775697</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="U22" t="n">
-        <v>2133.477403082843</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="V22" t="n">
-        <v>1872.742098641266</v>
+        <v>895.8583532604166</v>
       </c>
       <c r="W22" t="n">
-        <v>1586.585697158665</v>
+        <v>609.7019517778158</v>
       </c>
       <c r="X22" t="n">
-        <v>1355.333233054041</v>
+        <v>378.4494876731916</v>
       </c>
       <c r="Y22" t="n">
-        <v>1355.333233054041</v>
+        <v>378.4494876731916</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1787.553351437922</v>
+        <v>1969.756738711962</v>
       </c>
       <c r="C23" t="n">
-        <v>1787.553351437922</v>
+        <v>1969.756738711962</v>
       </c>
       <c r="D23" t="n">
-        <v>1414.729386665145</v>
+        <v>1617.613840663147</v>
       </c>
       <c r="E23" t="n">
-        <v>1019.943666771252</v>
+        <v>1222.828120769254</v>
       </c>
       <c r="F23" t="n">
-        <v>605.7924760814224</v>
+        <v>808.6769300794242</v>
       </c>
       <c r="G23" t="n">
-        <v>191.2030951565743</v>
+        <v>394.0875491545761</v>
       </c>
       <c r="H23" t="n">
-        <v>191.2030951565743</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="I23" t="n">
-        <v>76.77772956758214</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="J23" t="n">
-        <v>274.7683825121114</v>
+        <v>274.7683825121121</v>
       </c>
       <c r="K23" t="n">
-        <v>703.7382653709064</v>
+        <v>703.7382653709071</v>
       </c>
       <c r="L23" t="n">
         <v>1285.883344068166</v>
       </c>
       <c r="M23" t="n">
-        <v>1939.781569827918</v>
+        <v>1939.781569827919</v>
       </c>
       <c r="N23" t="n">
-        <v>2582.989724115773</v>
+        <v>2582.989724115774</v>
       </c>
       <c r="O23" t="n">
-        <v>3138.109955652191</v>
+        <v>3138.109955652192</v>
       </c>
       <c r="P23" t="n">
-        <v>3579.734770247006</v>
+        <v>3579.734770247007</v>
       </c>
       <c r="Q23" t="n">
-        <v>3834.472540366169</v>
+        <v>3834.47254036617</v>
       </c>
       <c r="R23" t="n">
-        <v>3838.886478379107</v>
+        <v>3838.886478379108</v>
       </c>
       <c r="S23" t="n">
-        <v>3686.171578597176</v>
+        <v>3838.886478379108</v>
       </c>
       <c r="T23" t="n">
-        <v>3468.442818433957</v>
+        <v>3838.886478379108</v>
       </c>
       <c r="U23" t="n">
-        <v>3213.678650597628</v>
+        <v>3838.886478379108</v>
       </c>
       <c r="V23" t="n">
-        <v>2876.69937649357</v>
+        <v>3501.907204275049</v>
       </c>
       <c r="W23" t="n">
-        <v>2876.69937649357</v>
+        <v>3139.37227413265</v>
       </c>
       <c r="X23" t="n">
-        <v>2494.669236015063</v>
+        <v>2757.342133654143</v>
       </c>
       <c r="Y23" t="n">
-        <v>2181.596890955941</v>
+        <v>2363.800278229981</v>
       </c>
     </row>
     <row r="24">
@@ -6065,19 +6065,19 @@
         <v>117.2585859767098</v>
       </c>
       <c r="I24" t="n">
-        <v>76.77772956758214</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="J24" t="n">
-        <v>76.77772956758214</v>
+        <v>112.2343566273209</v>
       </c>
       <c r="K24" t="n">
-        <v>94.15689717221667</v>
+        <v>469.9802842671442</v>
       </c>
       <c r="L24" t="n">
-        <v>155.1623974277033</v>
+        <v>1008.257308928183</v>
       </c>
       <c r="M24" t="n">
-        <v>478.2616698925959</v>
+        <v>1095.175305672749</v>
       </c>
       <c r="N24" t="n">
         <v>1196.100787152618</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>827.2027831048924</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="C25" t="n">
-        <v>827.2027831048924</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="D25" t="n">
-        <v>674.1308899326551</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="E25" t="n">
-        <v>522.1218756939739</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="F25" t="n">
-        <v>522.1218756939739</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="G25" t="n">
-        <v>353.8815270012276</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="H25" t="n">
-        <v>200.5493648781088</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="I25" t="n">
-        <v>76.77772956758214</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="J25" t="n">
-        <v>76.77772956758214</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="K25" t="n">
         <v>187.7450525321366</v>
@@ -6171,28 +6171,28 @@
         <v>1184.117918823379</v>
       </c>
       <c r="R25" t="n">
-        <v>1184.117918823379</v>
+        <v>1141.098679358289</v>
       </c>
       <c r="S25" t="n">
-        <v>1184.117918823379</v>
+        <v>1141.098679358289</v>
       </c>
       <c r="T25" t="n">
-        <v>1184.117918823379</v>
+        <v>910.8226168241476</v>
       </c>
       <c r="U25" t="n">
-        <v>1010.758151789272</v>
+        <v>623.6694354917604</v>
       </c>
       <c r="V25" t="n">
-        <v>1010.758151789272</v>
+        <v>362.9341310501831</v>
       </c>
       <c r="W25" t="n">
-        <v>1010.758151789272</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="X25" t="n">
-        <v>1010.758151789272</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="Y25" t="n">
-        <v>1010.758151789272</v>
+        <v>76.77772956758216</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2486.796929692108</v>
+        <v>1344.548910930483</v>
       </c>
       <c r="C26" t="n">
-        <v>2104.863171024916</v>
+        <v>962.6151522632902</v>
       </c>
       <c r="D26" t="n">
-        <v>1732.039206252139</v>
+        <v>589.7911874905137</v>
       </c>
       <c r="E26" t="n">
-        <v>1337.253486358246</v>
+        <v>589.7911874905137</v>
       </c>
       <c r="F26" t="n">
-        <v>923.1022956684163</v>
+        <v>175.6399968006841</v>
       </c>
       <c r="G26" t="n">
-        <v>508.5129147435682</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="H26" t="n">
-        <v>191.2030951565743</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="I26" t="n">
         <v>76.77772956758214</v>
@@ -6259,19 +6259,19 @@
         <v>3468.442818433957</v>
       </c>
       <c r="U26" t="n">
-        <v>3262.368925594777</v>
+        <v>3213.678650597628</v>
       </c>
       <c r="V26" t="n">
-        <v>3262.368925594777</v>
+        <v>2876.69937649357</v>
       </c>
       <c r="W26" t="n">
-        <v>3262.368925594777</v>
+        <v>2514.164446351171</v>
       </c>
       <c r="X26" t="n">
-        <v>2880.33878511627</v>
+        <v>2132.134305872664</v>
       </c>
       <c r="Y26" t="n">
-        <v>2486.796929692108</v>
+        <v>1738.592450448502</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2268.240853284982</v>
+        <v>919.5520583370986</v>
       </c>
       <c r="C27" t="n">
-        <v>2106.537180525937</v>
+        <v>757.8483855780534</v>
       </c>
       <c r="D27" t="n">
-        <v>1967.698543516149</v>
+        <v>619.0097485682654</v>
       </c>
       <c r="E27" t="n">
-        <v>1820.67053357302</v>
+        <v>471.9817386251367</v>
       </c>
       <c r="F27" t="n">
-        <v>1685.976735522895</v>
+        <v>337.2879405750111</v>
       </c>
       <c r="G27" t="n">
-        <v>1558.058620997056</v>
+        <v>209.3698260491727</v>
       </c>
       <c r="H27" t="n">
-        <v>1465.947380924593</v>
+        <v>117.2585859767098</v>
       </c>
       <c r="I27" t="n">
-        <v>1425.466524515466</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="J27" t="n">
-        <v>1560.760707841097</v>
+        <v>212.0719128932137</v>
       </c>
       <c r="K27" t="n">
-        <v>1578.139875445732</v>
+        <v>569.8178405330368</v>
       </c>
       <c r="L27" t="n">
-        <v>2116.41690010677</v>
+        <v>1108.094865194075</v>
       </c>
       <c r="M27" t="n">
-        <v>2203.334896851337</v>
+        <v>1195.012861938642</v>
       </c>
       <c r="N27" t="n">
-        <v>2544.789582100502</v>
+        <v>1295.938343418511</v>
       </c>
       <c r="O27" t="n">
-        <v>3125.963901571535</v>
+        <v>1777.275106623651</v>
       </c>
       <c r="P27" t="n">
-        <v>3579.728411993092</v>
+        <v>2231.039617045208</v>
       </c>
       <c r="Q27" t="n">
-        <v>3838.886478379107</v>
+        <v>2490.197683431223</v>
       </c>
       <c r="R27" t="n">
-        <v>3829.41719387149</v>
+        <v>2480.728398923607</v>
       </c>
       <c r="S27" t="n">
-        <v>3691.670261202057</v>
+        <v>2342.981466254173</v>
       </c>
       <c r="T27" t="n">
-        <v>3506.251579426621</v>
+        <v>2157.562784478737</v>
       </c>
       <c r="U27" t="n">
-        <v>3287.810101857226</v>
+        <v>1939.121306909342</v>
       </c>
       <c r="V27" t="n">
-        <v>3059.41447930556</v>
+        <v>1710.725684357676</v>
       </c>
       <c r="W27" t="n">
-        <v>2818.09861053887</v>
+        <v>1469.409815590986</v>
       </c>
       <c r="X27" t="n">
-        <v>2620.181622416664</v>
+        <v>1271.492827468781</v>
       </c>
       <c r="Y27" t="n">
-        <v>2427.660296066243</v>
+        <v>1078.97150111836</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>149.2798093696254</v>
+        <v>245.0180782603285</v>
       </c>
       <c r="C28" t="n">
-        <v>149.2798093696254</v>
+        <v>245.0180782603285</v>
       </c>
       <c r="D28" t="n">
-        <v>76.77772956758214</v>
+        <v>245.0180782603285</v>
       </c>
       <c r="E28" t="n">
-        <v>76.77772956758214</v>
+        <v>245.0180782603285</v>
       </c>
       <c r="F28" t="n">
-        <v>76.77772956758214</v>
+        <v>245.0180782603285</v>
       </c>
       <c r="G28" t="n">
         <v>76.77772956758214</v>
@@ -6411,25 +6411,25 @@
         <v>1184.117918823379</v>
       </c>
       <c r="S28" t="n">
-        <v>1184.117918823379</v>
+        <v>982.2482442619477</v>
       </c>
       <c r="T28" t="n">
-        <v>953.8418562892376</v>
+        <v>751.9721817278059</v>
       </c>
       <c r="U28" t="n">
-        <v>666.6886749568505</v>
+        <v>751.9721817278059</v>
       </c>
       <c r="V28" t="n">
-        <v>666.6886749568505</v>
+        <v>751.9721817278059</v>
       </c>
       <c r="W28" t="n">
-        <v>380.5322734742496</v>
+        <v>751.9721817278059</v>
       </c>
       <c r="X28" t="n">
-        <v>149.2798093696254</v>
+        <v>520.7197176231817</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.2798093696254</v>
+        <v>428.5734469447083</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1738.592450448502</v>
+        <v>2318.322493349378</v>
       </c>
       <c r="C29" t="n">
-        <v>1356.65869178131</v>
+        <v>1936.388734682185</v>
       </c>
       <c r="D29" t="n">
-        <v>983.8347270085333</v>
+        <v>1563.564769909408</v>
       </c>
       <c r="E29" t="n">
-        <v>605.7924760814224</v>
+        <v>1168.779050015515</v>
       </c>
       <c r="F29" t="n">
-        <v>605.7924760814224</v>
+        <v>754.6278593256854</v>
       </c>
       <c r="G29" t="n">
-        <v>191.2030951565743</v>
+        <v>394.087549154576</v>
       </c>
       <c r="H29" t="n">
-        <v>191.2030951565743</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="I29" t="n">
         <v>76.77772956758214</v>
@@ -6496,19 +6496,19 @@
         <v>3468.442818433958</v>
       </c>
       <c r="U29" t="n">
-        <v>3213.678650597629</v>
+        <v>3468.442818433958</v>
       </c>
       <c r="V29" t="n">
-        <v>2876.69937649357</v>
+        <v>3468.442818433958</v>
       </c>
       <c r="W29" t="n">
-        <v>2514.164446351171</v>
+        <v>3105.907888291559</v>
       </c>
       <c r="X29" t="n">
-        <v>2132.134305872664</v>
+        <v>3105.907888291559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1738.592450448502</v>
+        <v>2712.366032867397</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>76.77772956758214</v>
       </c>
       <c r="J30" t="n">
-        <v>76.77772956758214</v>
+        <v>112.2343566273211</v>
       </c>
       <c r="K30" t="n">
-        <v>94.15689717221667</v>
+        <v>469.9802842671443</v>
       </c>
       <c r="L30" t="n">
-        <v>155.1623974277033</v>
+        <v>1008.257308928183</v>
       </c>
       <c r="M30" t="n">
-        <v>841.4428112185199</v>
+        <v>1095.175305672749</v>
       </c>
       <c r="N30" t="n">
-        <v>1559.281928478542</v>
+        <v>1196.100787152618</v>
       </c>
       <c r="O30" t="n">
-        <v>2140.456247949575</v>
+        <v>1777.275106623651</v>
       </c>
       <c r="P30" t="n">
-        <v>2490.197683431223</v>
+        <v>2231.039617045208</v>
       </c>
       <c r="Q30" t="n">
         <v>2490.197683431223</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3137.901865828198</v>
+        <v>464.8190003954188</v>
       </c>
       <c r="C31" t="n">
-        <v>2968.285896289879</v>
+        <v>464.8190003954188</v>
       </c>
       <c r="D31" t="n">
-        <v>2815.214003117641</v>
+        <v>464.8190003954188</v>
       </c>
       <c r="E31" t="n">
-        <v>2815.214003117641</v>
+        <v>464.8190003954188</v>
       </c>
       <c r="F31" t="n">
-        <v>2743.569951993295</v>
+        <v>464.8190003954188</v>
       </c>
       <c r="G31" t="n">
-        <v>2743.569951993295</v>
+        <v>296.5786517026725</v>
       </c>
       <c r="H31" t="n">
-        <v>2743.569951993295</v>
+        <v>143.2464895795537</v>
       </c>
       <c r="I31" t="n">
-        <v>2743.569951993295</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="J31" t="n">
-        <v>2731.54628912331</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="K31" t="n">
-        <v>2842.513612087864</v>
+        <v>187.7450525321366</v>
       </c>
       <c r="L31" t="n">
-        <v>3042.118869374385</v>
+        <v>387.3503098186578</v>
       </c>
       <c r="M31" t="n">
-        <v>3264.492073514266</v>
+        <v>609.7235139585385</v>
       </c>
       <c r="N31" t="n">
-        <v>3484.81219735751</v>
+        <v>830.0436378017823</v>
       </c>
       <c r="O31" t="n">
-        <v>3677.394938250631</v>
+        <v>1022.626378694904</v>
       </c>
       <c r="P31" t="n">
-        <v>3820.898566811766</v>
+        <v>1166.130007256038</v>
       </c>
       <c r="Q31" t="n">
-        <v>3838.886478379107</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="R31" t="n">
-        <v>3838.886478379107</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="S31" t="n">
-        <v>3838.886478379107</v>
+        <v>982.2482442619477</v>
       </c>
       <c r="T31" t="n">
-        <v>3608.610415844966</v>
+        <v>751.9721817278059</v>
       </c>
       <c r="U31" t="n">
-        <v>3321.457234512578</v>
+        <v>464.8190003954188</v>
       </c>
       <c r="V31" t="n">
-        <v>3321.457234512578</v>
+        <v>464.8190003954188</v>
       </c>
       <c r="W31" t="n">
-        <v>3321.457234512578</v>
+        <v>464.8190003954188</v>
       </c>
       <c r="X31" t="n">
-        <v>3321.457234512578</v>
+        <v>464.8190003954188</v>
       </c>
       <c r="Y31" t="n">
-        <v>3321.457234512578</v>
+        <v>464.8190003954188</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2372.371564103116</v>
+        <v>1969.756738711961</v>
       </c>
       <c r="C32" t="n">
-        <v>1990.437805435924</v>
+        <v>1587.822980044769</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.613840663147</v>
+        <v>1214.999015271992</v>
       </c>
       <c r="E32" t="n">
-        <v>1222.828120769254</v>
+        <v>820.213295378099</v>
       </c>
       <c r="F32" t="n">
-        <v>808.6769300794242</v>
+        <v>406.0621046882694</v>
       </c>
       <c r="G32" t="n">
-        <v>394.087549154576</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="H32" t="n">
         <v>76.77772956758214</v>
@@ -6730,22 +6730,22 @@
         <v>3838.886478379107</v>
       </c>
       <c r="T32" t="n">
-        <v>3621.157718215888</v>
+        <v>3838.886478379107</v>
       </c>
       <c r="U32" t="n">
-        <v>3366.393550379559</v>
+        <v>3838.886478379107</v>
       </c>
       <c r="V32" t="n">
-        <v>3366.393550379559</v>
+        <v>3501.907204275048</v>
       </c>
       <c r="W32" t="n">
-        <v>3003.85862023716</v>
+        <v>3139.372274132649</v>
       </c>
       <c r="X32" t="n">
-        <v>2765.913419527278</v>
+        <v>2757.342133654142</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.371564103116</v>
+        <v>2363.80027822998</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>76.77772956758214</v>
       </c>
       <c r="J33" t="n">
-        <v>76.77772956758214</v>
+        <v>212.0719128932137</v>
       </c>
       <c r="K33" t="n">
-        <v>434.5236572074053</v>
+        <v>569.8178405330368</v>
       </c>
       <c r="L33" t="n">
-        <v>972.8006818684438</v>
+        <v>1108.094865194075</v>
       </c>
       <c r="M33" t="n">
-        <v>1059.718678613011</v>
+        <v>1195.012861938642</v>
       </c>
       <c r="N33" t="n">
-        <v>1777.557795873033</v>
+        <v>1295.938343418511</v>
       </c>
       <c r="O33" t="n">
-        <v>1851.831310434915</v>
+        <v>1777.275106623651</v>
       </c>
       <c r="P33" t="n">
-        <v>2305.595820856472</v>
+        <v>2231.039617045208</v>
       </c>
       <c r="Q33" t="n">
         <v>2490.197683431223</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>200.5493648781088</v>
+        <v>350.0730315668138</v>
       </c>
       <c r="C34" t="n">
-        <v>200.5493648781088</v>
+        <v>350.0730315668138</v>
       </c>
       <c r="D34" t="n">
-        <v>200.5493648781088</v>
+        <v>350.0730315668138</v>
       </c>
       <c r="E34" t="n">
-        <v>200.5493648781088</v>
+        <v>350.0730315668138</v>
       </c>
       <c r="F34" t="n">
-        <v>200.5493648781088</v>
+        <v>350.0730315668138</v>
       </c>
       <c r="G34" t="n">
-        <v>200.5493648781088</v>
+        <v>181.8326828740674</v>
       </c>
       <c r="H34" t="n">
-        <v>200.5493648781088</v>
+        <v>76.77772956758214</v>
       </c>
       <c r="I34" t="n">
         <v>76.77772956758214</v>
@@ -6888,22 +6888,22 @@
         <v>1184.117918823379</v>
       </c>
       <c r="T34" t="n">
-        <v>953.8418562892376</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="U34" t="n">
-        <v>666.6886749568505</v>
+        <v>896.9647374909921</v>
       </c>
       <c r="V34" t="n">
-        <v>666.6886749568505</v>
+        <v>636.2294330494146</v>
       </c>
       <c r="W34" t="n">
-        <v>380.5322734742496</v>
+        <v>350.0730315668138</v>
       </c>
       <c r="X34" t="n">
-        <v>380.5322734742496</v>
+        <v>350.0730315668138</v>
       </c>
       <c r="Y34" t="n">
-        <v>380.5322734742496</v>
+        <v>350.0730315668138</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1662.749528978682</v>
+        <v>1324.566496264771</v>
       </c>
       <c r="C35" t="n">
-        <v>1662.749528978682</v>
+        <v>942.6327375975779</v>
       </c>
       <c r="D35" t="n">
-        <v>1289.925564205906</v>
+        <v>942.6327375975779</v>
       </c>
       <c r="E35" t="n">
-        <v>895.1398443120124</v>
+        <v>942.6327375975779</v>
       </c>
       <c r="F35" t="n">
-        <v>480.9886536221828</v>
+        <v>528.4815469077482</v>
       </c>
       <c r="G35" t="n">
         <v>480.9886536221828</v>
@@ -6934,55 +6934,55 @@
         <v>163.6788340351889</v>
       </c>
       <c r="I35" t="n">
-        <v>49.25346844619678</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="J35" t="n">
         <v>247.2441213907261</v>
       </c>
       <c r="K35" t="n">
-        <v>353.3461301875654</v>
+        <v>569.004724139828</v>
       </c>
       <c r="L35" t="n">
-        <v>935.4912088848245</v>
+        <v>1151.149802837087</v>
       </c>
       <c r="M35" t="n">
-        <v>1545.00288090651</v>
+        <v>1760.661474858772</v>
       </c>
       <c r="N35" t="n">
-        <v>1625.345543476141</v>
+        <v>2370.173146880457</v>
       </c>
       <c r="O35" t="n">
-        <v>2180.465775012559</v>
+        <v>2435.203545131722</v>
       </c>
       <c r="P35" t="n">
-        <v>2207.935652190676</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="Q35" t="n">
-        <v>2462.673422309839</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="R35" t="n">
-        <v>2462.673422309839</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="S35" t="n">
-        <v>2309.958522527908</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="T35" t="n">
-        <v>2309.958522527908</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="U35" t="n">
-        <v>2309.958522527908</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="V35" t="n">
-        <v>2044.779669457189</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="W35" t="n">
-        <v>2044.779669457189</v>
+        <v>2100.138492167439</v>
       </c>
       <c r="X35" t="n">
-        <v>1662.749528978682</v>
+        <v>1718.108351688933</v>
       </c>
       <c r="Y35" t="n">
-        <v>1662.749528978682</v>
+        <v>1324.566496264771</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>89.73432485532445</v>
       </c>
       <c r="I36" t="n">
-        <v>49.25346844619678</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="J36" t="n">
-        <v>184.5476517718283</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="K36" t="n">
-        <v>201.9268193764628</v>
+        <v>80.2958069524384</v>
       </c>
       <c r="L36" t="n">
-        <v>359.4147652274617</v>
+        <v>618.5728316134769</v>
       </c>
       <c r="M36" t="n">
-        <v>968.9264372491467</v>
+        <v>1228.084503635162</v>
       </c>
       <c r="N36" t="n">
-        <v>1578.438109270832</v>
+        <v>1837.596175656847</v>
       </c>
       <c r="O36" t="n">
-        <v>2159.612428741865</v>
+        <v>2418.77049512788</v>
       </c>
       <c r="P36" t="n">
-        <v>2203.515355923823</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="Q36" t="n">
         <v>2462.673422309838</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>506.361008491693</v>
+        <v>845.5228562113001</v>
       </c>
       <c r="C37" t="n">
-        <v>506.361008491693</v>
+        <v>675.9068866729804</v>
       </c>
       <c r="D37" t="n">
-        <v>353.2891153194557</v>
+        <v>522.8349935007431</v>
       </c>
       <c r="E37" t="n">
-        <v>353.2891153194557</v>
+        <v>370.8259792620619</v>
       </c>
       <c r="F37" t="n">
-        <v>353.2891153194557</v>
+        <v>370.8259792620619</v>
       </c>
       <c r="G37" t="n">
-        <v>185.0487666267094</v>
+        <v>202.5856305693155</v>
       </c>
       <c r="H37" t="n">
-        <v>185.0487666267094</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="I37" t="n">
-        <v>61.27713131618273</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="J37" t="n">
-        <v>49.25346844619678</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="K37" t="n">
         <v>160.2207914107512</v>
@@ -7122,25 +7122,25 @@
         <v>1156.593657701994</v>
       </c>
       <c r="S37" t="n">
-        <v>1156.593657701994</v>
+        <v>954.7239831405624</v>
       </c>
       <c r="T37" t="n">
-        <v>926.3175951678523</v>
+        <v>954.7239831405624</v>
       </c>
       <c r="U37" t="n">
-        <v>639.1644138354652</v>
+        <v>954.7239831405624</v>
       </c>
       <c r="V37" t="n">
-        <v>639.1644138354652</v>
+        <v>954.7239831405624</v>
       </c>
       <c r="W37" t="n">
-        <v>639.1644138354652</v>
+        <v>845.5228562113001</v>
       </c>
       <c r="X37" t="n">
-        <v>506.361008491693</v>
+        <v>845.5228562113001</v>
       </c>
       <c r="Y37" t="n">
-        <v>506.361008491693</v>
+        <v>845.5228562113001</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>804.0111918861659</v>
+        <v>1686.599742313312</v>
       </c>
       <c r="C38" t="n">
-        <v>422.0774332189732</v>
+        <v>1304.66598364612</v>
       </c>
       <c r="D38" t="n">
-        <v>49.25346844619678</v>
+        <v>1304.66598364612</v>
       </c>
       <c r="E38" t="n">
-        <v>49.25346844619678</v>
+        <v>909.8802637522265</v>
       </c>
       <c r="F38" t="n">
-        <v>49.25346844619678</v>
+        <v>495.7290730623968</v>
       </c>
       <c r="G38" t="n">
-        <v>49.25346844619678</v>
+        <v>81.13969213754871</v>
       </c>
       <c r="H38" t="n">
-        <v>49.25346844619678</v>
+        <v>81.13969213754871</v>
       </c>
       <c r="I38" t="n">
-        <v>49.25346844619678</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="J38" t="n">
         <v>247.2441213907261</v>
       </c>
       <c r="K38" t="n">
-        <v>676.2140042495212</v>
+        <v>259.0388582704321</v>
       </c>
       <c r="L38" t="n">
-        <v>1258.35908294678</v>
+        <v>841.1839369676911</v>
       </c>
       <c r="M38" t="n">
-        <v>1333.733391101258</v>
+        <v>916.5582451221685</v>
       </c>
       <c r="N38" t="n">
-        <v>1620.931605463203</v>
+        <v>1526.069917143853</v>
       </c>
       <c r="O38" t="n">
-        <v>2176.051836999622</v>
+        <v>2081.190148680272</v>
       </c>
       <c r="P38" t="n">
-        <v>2203.521714177738</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="Q38" t="n">
-        <v>2458.259484296901</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="R38" t="n">
-        <v>2462.673422309839</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="S38" t="n">
-        <v>2462.673422309839</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="T38" t="n">
-        <v>2310.606001410912</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="U38" t="n">
-        <v>2310.606001410912</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="V38" t="n">
-        <v>1973.626727306854</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="W38" t="n">
-        <v>1973.626727306854</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="X38" t="n">
-        <v>1591.596586828347</v>
+        <v>2080.643281831331</v>
       </c>
       <c r="Y38" t="n">
-        <v>1198.054731404185</v>
+        <v>2080.643281831331</v>
       </c>
     </row>
     <row r="39">
@@ -7250,19 +7250,19 @@
         <v>89.73432485532445</v>
       </c>
       <c r="I39" t="n">
-        <v>49.25346844619678</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="J39" t="n">
-        <v>49.25346844619678</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="K39" t="n">
-        <v>66.63263605083131</v>
+        <v>406.99939608602</v>
       </c>
       <c r="L39" t="n">
-        <v>127.6381363063179</v>
+        <v>468.0048963415066</v>
       </c>
       <c r="M39" t="n">
-        <v>737.149808328003</v>
+        <v>1067.651044551364</v>
       </c>
       <c r="N39" t="n">
         <v>1168.576526031233</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>49.25346844619678</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="C40" t="n">
-        <v>49.25346844619678</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="D40" t="n">
-        <v>49.25346844619678</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="E40" t="n">
-        <v>49.25346844619678</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="F40" t="n">
-        <v>49.25346844619678</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="G40" t="n">
-        <v>49.25346844619678</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="H40" t="n">
-        <v>49.25346844619678</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="I40" t="n">
-        <v>49.25346844619678</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="J40" t="n">
-        <v>49.25346844619678</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="K40" t="n">
         <v>160.2207914107512</v>
@@ -7359,25 +7359,25 @@
         <v>1156.593657701994</v>
       </c>
       <c r="S40" t="n">
-        <v>1156.593657701994</v>
+        <v>1037.370884050189</v>
       </c>
       <c r="T40" t="n">
-        <v>1156.593657701994</v>
+        <v>1037.370884050189</v>
       </c>
       <c r="U40" t="n">
-        <v>869.4404763696068</v>
+        <v>750.2177027178018</v>
       </c>
       <c r="V40" t="n">
-        <v>869.4404763696068</v>
+        <v>750.2177027178018</v>
       </c>
       <c r="W40" t="n">
-        <v>583.284074887006</v>
+        <v>464.0613012352009</v>
       </c>
       <c r="X40" t="n">
-        <v>352.0316107823818</v>
+        <v>232.8088371305766</v>
       </c>
       <c r="Y40" t="n">
-        <v>129.9964519746589</v>
+        <v>232.8088371305766</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>845.7766080382376</v>
+        <v>1654.71351862196</v>
       </c>
       <c r="C41" t="n">
-        <v>463.8428493710449</v>
+        <v>1272.779759954768</v>
       </c>
       <c r="D41" t="n">
-        <v>463.8428493710449</v>
+        <v>1272.779759954768</v>
       </c>
       <c r="E41" t="n">
-        <v>463.8428493710449</v>
+        <v>877.9940400608746</v>
       </c>
       <c r="F41" t="n">
         <v>463.8428493710449</v>
@@ -7417,22 +7417,22 @@
         <v>676.2140042495212</v>
       </c>
       <c r="L41" t="n">
-        <v>720.8290998203505</v>
+        <v>1051.059697322396</v>
       </c>
       <c r="M41" t="n">
-        <v>856.4167041569206</v>
+        <v>1126.434005476873</v>
       </c>
       <c r="N41" t="n">
-        <v>1465.928376178606</v>
+        <v>1206.776668046505</v>
       </c>
       <c r="O41" t="n">
-        <v>2021.048607715024</v>
+        <v>1761.896899582923</v>
       </c>
       <c r="P41" t="n">
-        <v>2462.673422309838</v>
+        <v>2203.521714177738</v>
       </c>
       <c r="Q41" t="n">
-        <v>2462.673422309838</v>
+        <v>2458.259484296901</v>
       </c>
       <c r="R41" t="n">
         <v>2462.673422309838</v>
@@ -7444,19 +7444,19 @@
         <v>2462.673422309838</v>
       </c>
       <c r="U41" t="n">
-        <v>2377.927073601325</v>
+        <v>2430.787198618486</v>
       </c>
       <c r="V41" t="n">
-        <v>2377.927073601325</v>
+        <v>2430.787198618486</v>
       </c>
       <c r="W41" t="n">
-        <v>2015.392143458925</v>
+        <v>2430.787198618486</v>
       </c>
       <c r="X41" t="n">
-        <v>1633.362002980419</v>
+        <v>2048.75705813998</v>
       </c>
       <c r="Y41" t="n">
-        <v>1239.820147556257</v>
+        <v>2048.75705813998</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>49.25346844619677</v>
       </c>
       <c r="K42" t="n">
-        <v>66.63263605083129</v>
+        <v>80.29580695243885</v>
       </c>
       <c r="L42" t="n">
-        <v>127.6381363063179</v>
+        <v>618.5728316134773</v>
       </c>
       <c r="M42" t="n">
-        <v>737.1498083280028</v>
+        <v>1228.084503635162</v>
       </c>
       <c r="N42" t="n">
-        <v>1168.576526031233</v>
+        <v>1837.596175656847</v>
       </c>
       <c r="O42" t="n">
-        <v>1749.750845502266</v>
+        <v>2418.77049512788</v>
       </c>
       <c r="P42" t="n">
-        <v>2203.515355923823</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="Q42" t="n">
         <v>2462.673422309838</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1732.22634770128</v>
+        <v>523.3066342362847</v>
       </c>
       <c r="C43" t="n">
-        <v>1562.610378162961</v>
+        <v>523.3066342362847</v>
       </c>
       <c r="D43" t="n">
-        <v>1562.610378162961</v>
+        <v>523.3066342362847</v>
       </c>
       <c r="E43" t="n">
-        <v>1562.610378162961</v>
+        <v>523.3066342362847</v>
       </c>
       <c r="F43" t="n">
-        <v>1508.665395177159</v>
+        <v>370.8259792620619</v>
       </c>
       <c r="G43" t="n">
-        <v>1508.665395177159</v>
+        <v>202.5856305693155</v>
       </c>
       <c r="H43" t="n">
-        <v>1355.333233054041</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="I43" t="n">
-        <v>1355.333233054041</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="J43" t="n">
-        <v>1355.333233054041</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="K43" t="n">
-        <v>1466.300556018595</v>
+        <v>160.2207914107512</v>
       </c>
       <c r="L43" t="n">
-        <v>1665.905813305116</v>
+        <v>359.8260486972724</v>
       </c>
       <c r="M43" t="n">
-        <v>1888.279017444997</v>
+        <v>582.1992528371532</v>
       </c>
       <c r="N43" t="n">
-        <v>2108.599141288241</v>
+        <v>802.5193766803969</v>
       </c>
       <c r="O43" t="n">
-        <v>2301.181882181362</v>
+        <v>995.1021175735183</v>
       </c>
       <c r="P43" t="n">
-        <v>2444.685510742497</v>
+        <v>1138.605746134653</v>
       </c>
       <c r="Q43" t="n">
-        <v>2462.673422309838</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="R43" t="n">
-        <v>2462.673422309838</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="S43" t="n">
-        <v>2462.673422309838</v>
+        <v>954.7239831405624</v>
       </c>
       <c r="T43" t="n">
-        <v>2462.673422309838</v>
+        <v>954.7239831405624</v>
       </c>
       <c r="U43" t="n">
-        <v>2462.673422309838</v>
+        <v>954.7239831405624</v>
       </c>
       <c r="V43" t="n">
-        <v>2201.938117868261</v>
+        <v>754.5590983409089</v>
       </c>
       <c r="W43" t="n">
-        <v>1915.78171638566</v>
+        <v>754.5590983409089</v>
       </c>
       <c r="X43" t="n">
-        <v>1915.78171638566</v>
+        <v>523.3066342362847</v>
       </c>
       <c r="Y43" t="n">
-        <v>1915.78171638566</v>
+        <v>523.3066342362847</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1675.088027367657</v>
+        <v>1769.138884210953</v>
       </c>
       <c r="C44" t="n">
-        <v>1293.154268700465</v>
+        <v>1387.20512554376</v>
       </c>
       <c r="D44" t="n">
-        <v>1293.154268700465</v>
+        <v>1387.20512554376</v>
       </c>
       <c r="E44" t="n">
-        <v>898.3685488065714</v>
+        <v>992.4194056498668</v>
       </c>
       <c r="F44" t="n">
-        <v>484.2173581167418</v>
+        <v>578.2682149600371</v>
       </c>
       <c r="G44" t="n">
-        <v>69.62797719189365</v>
+        <v>163.6788340351889</v>
       </c>
       <c r="H44" t="n">
-        <v>49.25346844619677</v>
+        <v>163.6788340351889</v>
       </c>
       <c r="I44" t="n">
         <v>49.25346844619677</v>
@@ -7657,16 +7657,16 @@
         <v>1060.368430002251</v>
       </c>
       <c r="M44" t="n">
-        <v>1135.742738156728</v>
+        <v>1270.571641573619</v>
       </c>
       <c r="N44" t="n">
-        <v>1216.08540072636</v>
+        <v>1880.083313595304</v>
       </c>
       <c r="O44" t="n">
-        <v>1771.205632262778</v>
+        <v>2435.203545131722</v>
       </c>
       <c r="P44" t="n">
-        <v>2207.935652190675</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="Q44" t="n">
         <v>2462.673422309838</v>
@@ -7675,25 +7675,25 @@
         <v>2462.673422309838</v>
       </c>
       <c r="S44" t="n">
-        <v>2462.673422309838</v>
+        <v>2309.958522527908</v>
       </c>
       <c r="T44" t="n">
-        <v>2462.673422309838</v>
+        <v>2092.229762364689</v>
       </c>
       <c r="U44" t="n">
-        <v>2462.673422309838</v>
+        <v>1837.46559452836</v>
       </c>
       <c r="V44" t="n">
-        <v>2462.673422309838</v>
+        <v>1837.46559452836</v>
       </c>
       <c r="W44" t="n">
-        <v>2462.673422309838</v>
+        <v>1837.46559452836</v>
       </c>
       <c r="X44" t="n">
-        <v>2462.673422309838</v>
+        <v>1769.138884210953</v>
       </c>
       <c r="Y44" t="n">
-        <v>2069.131566885676</v>
+        <v>1769.138884210953</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>892.0277972157139</v>
+        <v>892.0277972157133</v>
       </c>
       <c r="C45" t="n">
-        <v>730.3241244566686</v>
+        <v>730.3241244566681</v>
       </c>
       <c r="D45" t="n">
-        <v>591.4854874468807</v>
+        <v>591.4854874468801</v>
       </c>
       <c r="E45" t="n">
-        <v>444.4574775037519</v>
+        <v>444.4574775037514</v>
       </c>
       <c r="F45" t="n">
-        <v>309.7636794536263</v>
+        <v>309.7636794536257</v>
       </c>
       <c r="G45" t="n">
-        <v>181.845564927788</v>
+        <v>181.8455649277874</v>
       </c>
       <c r="H45" t="n">
         <v>89.73432485532445</v>
@@ -7730,28 +7730,28 @@
         <v>49.25346844619677</v>
       </c>
       <c r="K45" t="n">
-        <v>66.63263605083129</v>
+        <v>406.99939608602</v>
       </c>
       <c r="L45" t="n">
-        <v>604.9096607118697</v>
+        <v>945.2764207470584</v>
       </c>
       <c r="M45" t="n">
-        <v>818.2229203955633</v>
+        <v>1067.651044551364</v>
       </c>
       <c r="N45" t="n">
-        <v>1427.734592417248</v>
+        <v>1168.576526031233</v>
       </c>
       <c r="O45" t="n">
-        <v>2008.908911888281</v>
+        <v>1749.750845502266</v>
       </c>
       <c r="P45" t="n">
-        <v>2462.673422309838</v>
+        <v>2203.515355923823</v>
       </c>
       <c r="Q45" t="n">
         <v>2462.673422309838</v>
       </c>
       <c r="R45" t="n">
-        <v>2453.204137802222</v>
+        <v>2453.204137802221</v>
       </c>
       <c r="S45" t="n">
         <v>2315.457205132788</v>
@@ -7769,10 +7769,10 @@
         <v>1441.885554469601</v>
       </c>
       <c r="X45" t="n">
-        <v>1243.968566347396</v>
+        <v>1243.968566347395</v>
       </c>
       <c r="Y45" t="n">
-        <v>1051.447239996975</v>
+        <v>1051.447239996974</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>495.9732354181619</v>
+        <v>387.1097866772628</v>
       </c>
       <c r="C46" t="n">
-        <v>326.3572658798422</v>
+        <v>217.4938171389431</v>
       </c>
       <c r="D46" t="n">
-        <v>326.3572658798422</v>
+        <v>217.4938171389431</v>
       </c>
       <c r="E46" t="n">
-        <v>326.3572658798422</v>
+        <v>217.4938171389431</v>
       </c>
       <c r="F46" t="n">
-        <v>326.3572658798422</v>
+        <v>217.4938171389431</v>
       </c>
       <c r="G46" t="n">
-        <v>326.3572658798422</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="H46" t="n">
-        <v>173.0251037567234</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="I46" t="n">
         <v>49.25346844619677</v>
@@ -7836,22 +7836,22 @@
         <v>1156.593657701994</v>
       </c>
       <c r="T46" t="n">
-        <v>926.3175951678523</v>
+        <v>1143.974738176631</v>
       </c>
       <c r="U46" t="n">
-        <v>926.3175951678523</v>
+        <v>856.8215568442436</v>
       </c>
       <c r="V46" t="n">
-        <v>926.3175951678523</v>
+        <v>856.8215568442436</v>
       </c>
       <c r="W46" t="n">
-        <v>640.1611936852514</v>
+        <v>570.6651553616426</v>
       </c>
       <c r="X46" t="n">
-        <v>640.1611936852514</v>
+        <v>570.6651553616426</v>
       </c>
       <c r="Y46" t="n">
-        <v>495.9732354181619</v>
+        <v>570.6651553616426</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
-        <v>190.2834073541843</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L2" t="n">
-        <v>203.5031588434685</v>
+        <v>203.0206155432522</v>
       </c>
       <c r="M2" t="n">
         <v>199.099261177513</v>
       </c>
       <c r="N2" t="n">
-        <v>186.3981141722301</v>
+        <v>198.341060852584</v>
       </c>
       <c r="O2" t="n">
         <v>198.8977434604743</v>
@@ -8060,25 +8060,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>123.4565725468042</v>
       </c>
       <c r="L3" t="n">
         <v>124.5183802515017</v>
       </c>
       <c r="M3" t="n">
-        <v>126.9443059417775</v>
+        <v>127.4268492419938</v>
       </c>
       <c r="N3" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
-        <v>127.802395291465</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>120.7971527044972</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.6781381252464</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>159.0427441082865</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
-        <v>190.2834073541843</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L5" t="n">
-        <v>191.5602121631146</v>
+        <v>203.5031588434685</v>
       </c>
       <c r="M5" t="n">
         <v>199.099261177513</v>
@@ -8230,13 +8230,13 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O5" t="n">
-        <v>186.9547967801205</v>
+        <v>198.415200160258</v>
       </c>
       <c r="P5" t="n">
-        <v>187.8768090511565</v>
+        <v>199.8197557315104</v>
       </c>
       <c r="Q5" t="n">
-        <v>192.5663197033441</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8303,19 +8303,19 @@
         <v>124.5183802515017</v>
       </c>
       <c r="M6" t="n">
-        <v>115.4839025616399</v>
+        <v>127.4268492419938</v>
       </c>
       <c r="N6" t="n">
         <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>127.3198519912487</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
-        <v>120.7971527044972</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>125.1955948250301</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8376,19 +8376,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K7" t="n">
-        <v>104.82327226356</v>
+        <v>116.7662189439139</v>
       </c>
       <c r="L7" t="n">
-        <v>109.5937994785061</v>
+        <v>121.53674615886</v>
       </c>
       <c r="M7" t="n">
         <v>124.820146137783</v>
       </c>
       <c r="N7" t="n">
-        <v>115.6874515583558</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O7" t="n">
-        <v>124.4388841724762</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P7" t="n">
         <v>123.36440667007</v>
@@ -8464,16 +8464,16 @@
         <v>199.099261177513</v>
       </c>
       <c r="N8" t="n">
-        <v>198.341060852584</v>
+        <v>197.8585175523677</v>
       </c>
       <c r="O8" t="n">
-        <v>198.415200160258</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229902</v>
+        <v>192.5663197033441</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8531,10 +8531,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>114.9985183470206</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>123.4565725468042</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
         <v>112.5754335711478</v>
@@ -8543,10 +8543,10 @@
         <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>106.7151410677083</v>
+        <v>118.1755444478459</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>127.802395291465</v>
       </c>
       <c r="P9" t="n">
         <v>120.7971527044972</v>
@@ -8613,16 +8613,16 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>104.82327226356</v>
+        <v>116.2836756436975</v>
       </c>
       <c r="L10" t="n">
-        <v>121.0542028586437</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M10" t="n">
-        <v>112.8771994574291</v>
+        <v>124.820146137783</v>
       </c>
       <c r="N10" t="n">
-        <v>115.6874515583558</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
         <v>124.4388841724762</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>19.83504119386832</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8698,22 +8698,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>539.5326907749572</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>534.5141509616701</v>
+        <v>534.5141509616699</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>298.5508680283659</v>
       </c>
       <c r="P11" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>235.0182236411131</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
-        <v>80.97282258948576</v>
+        <v>80.97282258948573</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,22 +8771,22 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>527.8723992698166</v>
+        <v>411.1749986295538</v>
       </c>
       <c r="N12" t="n">
-        <v>513.7234247897134</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>97.45701575304359</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8929,7 +8929,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>176.9803254552954</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
@@ -8938,19 +8938,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>534.5141509616701</v>
+        <v>52.37608334112679</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578761</v>
+        <v>18.69860894963051</v>
       </c>
       <c r="R14" t="n">
-        <v>80.97282258948574</v>
+        <v>80.97282258948573</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,25 +9008,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>211.3278157909417</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>527.8723992698164</v>
       </c>
       <c r="N15" t="n">
-        <v>513.7234247897134</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>47.05900816424575</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>11.32464942426564</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>19.83504119386831</v>
+        <v>19.83504119386828</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>539.5326907749572</v>
+        <v>539.532690774957</v>
       </c>
       <c r="N17" t="n">
-        <v>295.2504291531941</v>
+        <v>534.5141509616699</v>
       </c>
       <c r="O17" t="n">
-        <v>495.0402356415689</v>
+        <v>91.69835639882433</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>276.0094878578761</v>
+        <v>18.69860894963051</v>
       </c>
       <c r="R17" t="n">
-        <v>80.97282258948574</v>
+        <v>80.97282258948573</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,25 +9242,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>27.25755470451982</v>
+        <v>27.25755470451981</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>347.9886070289533</v>
+        <v>234.1178069910547</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>527.8723992698164</v>
       </c>
       <c r="N18" t="n">
-        <v>513.7234247897134</v>
+        <v>513.7234247897131</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>414.0015992319183</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>273.1004740566038</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>19.83504119386831</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
-        <v>539.5326907749572</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>534.5141509616701</v>
+        <v>534.5141509616699</v>
       </c>
       <c r="O20" t="n">
-        <v>495.0402356415689</v>
+        <v>12.90216802102572</v>
       </c>
       <c r="P20" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>161.3670243420585</v>
+        <v>18.69860894963051</v>
       </c>
       <c r="R20" t="n">
-        <v>80.97282258948574</v>
+        <v>80.97282258948573</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>27.25755470451982</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>381.2464324643023</v>
       </c>
       <c r="M21" t="n">
-        <v>527.8723992698165</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>513.7234247897134</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>111.8205985567268</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>11.32464942426566</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9716,19 +9716,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>27.25755470451982</v>
+        <v>63.07232951233676</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>238.5669451720465</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9956,7 +9956,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9965,10 +9965,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>242.9587916861576</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>512.0210150597484</v>
+        <v>411.174998629554</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
@@ -10190,28 +10190,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>27.25755470451982</v>
+        <v>63.07232951233691</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>308.9277861613032</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.32464942426566</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10427,7 +10427,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>27.25755470451982</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10439,16 +10439,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>411.174998629554</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>197.7911772775496</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10588,7 +10588,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
-        <v>95.25987062336705</v>
+        <v>313.096834211511</v>
       </c>
       <c r="L35" t="n">
         <v>542.9595789155856</v>
@@ -10597,16 +10597,16 @@
         <v>539.5326907749572</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>534.5141509616701</v>
       </c>
       <c r="O35" t="n">
-        <v>495.0402356415689</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578761</v>
+        <v>18.69860894963054</v>
       </c>
       <c r="R35" t="n">
         <v>80.97282258948574</v>
@@ -10664,16 +10664,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>27.25755470451982</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>13.80118272889606</v>
       </c>
       <c r="L36" t="n">
-        <v>97.45701575304264</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>527.8723992698166</v>
+        <v>527.8723992698165</v>
       </c>
       <c r="N36" t="n">
         <v>513.7234247897134</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>11.32464942426566</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10825,7 +10825,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>421.3890363425141</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>542.9595789155856</v>
@@ -10834,19 +10834,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>208.9450018104183</v>
+        <v>534.5141509616701</v>
       </c>
       <c r="O38" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>357.5892893448992</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>18.69860894963054</v>
       </c>
       <c r="R38" t="n">
-        <v>85.43134583487716</v>
+        <v>80.97282258948574</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,16 +10904,16 @@
         <v>27.25755470451982</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>527.8723992698167</v>
+        <v>517.907223702314</v>
       </c>
       <c r="N39" t="n">
-        <v>333.8396325488495</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11065,13 +11065,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>333.566260103076</v>
       </c>
       <c r="M41" t="n">
-        <v>60.82151129504311</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>534.5141509616701</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>495.0402356415689</v>
@@ -11080,10 +11080,10 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>18.69860894963054</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
-        <v>80.97282258948574</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,25 +11141,25 @@
         <v>27.25755470451982</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>13.80118272889652</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>527.8723992698165</v>
       </c>
       <c r="N42" t="n">
-        <v>333.8396325488501</v>
+        <v>513.7234247897134</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>11.32464942426566</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11305,19 +11305,19 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>136.1908115322128</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>534.5141509616701</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>413.3940835856372</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578761</v>
+        <v>18.69860894963054</v>
       </c>
       <c r="R44" t="n">
         <v>80.97282258948574</v>
@@ -11378,16 +11378,16 @@
         <v>27.25755470451982</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>127.6719827667949</v>
+        <v>35.8147748078172</v>
       </c>
       <c r="N45" t="n">
-        <v>513.7234247897134</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11396,7 +11396,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.32464942426566</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>105.4012122564354</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>365.9947256686362</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>151.1877507841112</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>215.551472561587</v>
@@ -23320,13 +23320,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5579452058188</v>
       </c>
       <c r="H13" t="n">
-        <v>151.7988405018876</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>122.5339189574214</v>
+        <v>91.83537124460418</v>
       </c>
       <c r="J13" t="n">
-        <v>11.9034262412861</v>
+        <v>11.90342624128608</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>227.9733019088003</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>90.85359159070779</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.4434871155996</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>314.136721391124</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>113.2811119331022</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>151.1877507841112</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>186.3620129478755</v>
       </c>
       <c r="U14" t="n">
-        <v>22.02948354824937</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V14" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>85.73569956687103</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5579452058188</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>44.80033820472515</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>122.5339189574214</v>
       </c>
       <c r="J16" t="n">
-        <v>11.90342624128609</v>
+        <v>11.90342624128608</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>117.7837546691494</v>
       </c>
       <c r="S16" t="n">
         <v>199.8509778158173</v>
@@ -23718,10 +23718,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>273.4208579876977</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>410.4434871155996</v>
+        <v>138.2602168961995</v>
       </c>
       <c r="H17" t="n">
-        <v>314.136721391124</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>113.2811119331022</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>252.2165261579655</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -23892,28 +23892,28 @@
         <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
-        <v>114.1488659180323</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>24.92294170208393</v>
       </c>
       <c r="G19" t="n">
         <v>166.5579452058188</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.7988405018876</v>
       </c>
       <c r="I19" t="n">
         <v>122.5339189574214</v>
       </c>
       <c r="J19" t="n">
-        <v>11.90342624128609</v>
+        <v>11.90342624128608</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>117.7837546691494</v>
       </c>
       <c r="S19" t="n">
-        <v>199.8509778158173</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
         <v>219.8148072196457</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>162.2532141690227</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>21.92310965983216</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>314.136721391124</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>151.1877507841112</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -24135,7 +24135,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>6.304680059105522</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
@@ -24150,7 +24150,7 @@
         <v>122.5339189574214</v>
       </c>
       <c r="J22" t="n">
-        <v>11.90342624128609</v>
+        <v>11.90342624128608</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>199.8509778158173</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>227.9733019088003</v>
       </c>
       <c r="U22" t="n">
-        <v>186.3508923931382</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24211,7 +24211,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>20.47425605672169</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>314.136721391124</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>113.2811119331022</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>151.1877507841112</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>79.66481526138983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5579452058188</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.7988405018876</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>122.5339189574214</v>
       </c>
       <c r="J25" t="n">
-        <v>11.90342624128609</v>
+        <v>11.90342624128608</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>117.7837546691494</v>
+        <v>75.19470759871047</v>
       </c>
       <c r="S25" t="n">
         <v>199.8509778158173</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9733019088003</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>112.6554801552973</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>312.5698425548287</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>314.136721391124</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>113.2811119331022</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,13 +24499,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>48.20337224717719</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>79.76411523649209</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
         <v>150.4889240962943</v>
@@ -24615,7 +24615,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5579452058188</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>151.7988405018876</v>
@@ -24651,25 +24651,25 @@
         <v>117.7837546691494</v>
       </c>
       <c r="S28" t="n">
-        <v>199.8509778158173</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.8148072196457</v>
+        <v>128.5899992479569</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>16.57603427711445</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>53.5085800462013</v>
       </c>
       <c r="H29" t="n">
-        <v>314.136721391124</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>113.2811119331022</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
-        <v>80.02823781137823</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5579452058188</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>151.7988405018876</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>122.5339189574214</v>
+        <v>56.72984654556957</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>11.90342624128609</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>117.7837546691494</v>
       </c>
       <c r="S31" t="n">
-        <v>199.8509778158173</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>84.45195574611927</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>314.136721391124</v>
       </c>
       <c r="I32" t="n">
         <v>113.2811119331022</v>
@@ -24970,19 +24970,19 @@
         <v>151.1877507841112</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>142.6440903709388</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.536735487356623</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
@@ -25089,13 +25089,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5579452058188</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>151.7988405018876</v>
+        <v>47.7944367284671</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>122.5339189574214</v>
       </c>
       <c r="J34" t="n">
         <v>11.90342624128609</v>
@@ -25128,13 +25128,13 @@
         <v>199.8509778158173</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>227.9733019088003</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25156,19 +25156,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.4434871155996</v>
+        <v>363.4255227628899</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>151.1877507841112</v>
       </c>
       <c r="T35" t="n">
         <v>215.551472561587</v>
@@ -25213,16 +25213,16 @@
         <v>252.2165261579655</v>
       </c>
       <c r="V35" t="n">
-        <v>71.08241682300559</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,13 +25314,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -25329,13 +25329,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>151.7988405018876</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>122.5339189574214</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>11.90342624128609</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>117.7837546691494</v>
       </c>
       <c r="S37" t="n">
-        <v>199.8509778158173</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>227.9733019088003</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V37" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>175.1857218078052</v>
       </c>
       <c r="X37" t="n">
-        <v>97.46456817324355</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
         <v>219.8148072196457</v>
@@ -25396,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.4434871155996</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>314.136721391124</v>
       </c>
       <c r="I38" t="n">
-        <v>113.2811119331022</v>
+        <v>81.7137504786638</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>151.1877507841112</v>
       </c>
       <c r="T38" t="n">
-        <v>65.00472587164964</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U38" t="n">
         <v>252.2165261579655</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
         <v>358.909580840975</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>101.7842613043586</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.9198098429365</v>
@@ -25599,7 +25599,7 @@
         <v>117.7837546691494</v>
       </c>
       <c r="S40" t="n">
-        <v>199.8509778158173</v>
+        <v>81.82043190053038</v>
       </c>
       <c r="T40" t="n">
         <v>227.9733019088003</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="41">
@@ -25636,10 +25636,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>215.551472561587</v>
       </c>
       <c r="U41" t="n">
-        <v>168.3176409365369</v>
+        <v>220.6491647035272</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -25797,10 +25797,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>97.55031526853716</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5579452058188</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>117.7837546691494</v>
       </c>
       <c r="S43" t="n">
-        <v>199.8509778158173</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>227.9733019088003</v>
@@ -25845,13 +25845,13 @@
         <v>284.2816495190633</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>59.96471544550468</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>219.8148072196457</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>293.965957732884</v>
+        <v>314.136721391124</v>
       </c>
       <c r="I44" t="n">
-        <v>113.2811119331022</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>151.1877507841112</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2165261579655</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25930,10 +25930,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>310.5663958594886</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5579452058188</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.7988405018876</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>122.5339189574214</v>
       </c>
       <c r="J46" t="n">
         <v>11.90342624128609</v>
@@ -26076,10 +26076,10 @@
         <v>199.8509778158173</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>215.4805715786907</v>
       </c>
       <c r="U46" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
@@ -26091,7 +26091,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>77.06872853522711</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>593887.9308794391</v>
+        <v>593887.9308794389</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>593887.9308794392</v>
+        <v>593887.930879439</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>593887.9308794391</v>
+        <v>593887.930879439</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>593887.9308794391</v>
+        <v>593887.930879439</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>727333.9586809883</v>
+        <v>727333.9586809884</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>727333.9586809885</v>
+        <v>727333.9586809883</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>727333.9586809883</v>
+        <v>727333.9586809884</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>593887.9308794391</v>
+        <v>593887.930879439</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>593887.9308794391</v>
+        <v>593887.930879439</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>594908.646882991</v>
+        <v>594908.6468829904</v>
       </c>
       <c r="C2" t="n">
-        <v>594908.646882991</v>
+        <v>594908.6468829908</v>
       </c>
       <c r="D2" t="n">
-        <v>594908.6468829905</v>
+        <v>594908.6468829911</v>
       </c>
       <c r="E2" t="n">
-        <v>405965.9192619584</v>
+        <v>405965.9192619582</v>
       </c>
       <c r="F2" t="n">
         <v>405965.9192619585</v>
       </c>
       <c r="G2" t="n">
-        <v>405965.9192619586</v>
+        <v>405965.9192619585</v>
       </c>
       <c r="H2" t="n">
-        <v>405965.9192619585</v>
+        <v>405965.9192619582</v>
       </c>
       <c r="I2" t="n">
-        <v>488334.5249046899</v>
+        <v>488334.5249046898</v>
       </c>
       <c r="J2" t="n">
         <v>488334.52490469</v>
       </c>
       <c r="K2" t="n">
-        <v>488334.5249046901</v>
+        <v>488334.5249046899</v>
       </c>
       <c r="L2" t="n">
-        <v>488334.5249046899</v>
+        <v>488334.5249046898</v>
       </c>
       <c r="M2" t="n">
-        <v>405965.9192619584</v>
+        <v>405965.9192619585</v>
       </c>
       <c r="N2" t="n">
         <v>405965.9192619585</v>
@@ -26355,7 +26355,7 @@
         <v>405965.9192619585</v>
       </c>
       <c r="P2" t="n">
-        <v>405965.9192619586</v>
+        <v>405965.9192619585</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4002.356120360259</v>
+        <v>4002.356120360235</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>479920.8654223746</v>
+        <v>479920.8654223747</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>91490.98802074899</v>
+        <v>91490.98802074905</v>
       </c>
       <c r="J3" t="n">
-        <v>3124.800341234512</v>
+        <v>3124.800341234495</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>64711.33719262292</v>
+        <v>64711.33719262284</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,28 +26426,28 @@
         <v>382502.5179362813</v>
       </c>
       <c r="E4" t="n">
-        <v>83642.99703601305</v>
+        <v>83642.99703601302</v>
       </c>
       <c r="F4" t="n">
-        <v>83642.99703601304</v>
+        <v>83642.99703601302</v>
       </c>
       <c r="G4" t="n">
-        <v>83642.99703601305</v>
+        <v>83642.99703601302</v>
       </c>
       <c r="H4" t="n">
-        <v>83642.99703601305</v>
+        <v>83642.99703601301</v>
       </c>
       <c r="I4" t="n">
         <v>113626.6648779584</v>
       </c>
       <c r="J4" t="n">
-        <v>113626.6648779584</v>
+        <v>113626.6648779585</v>
       </c>
       <c r="K4" t="n">
         <v>113626.6648779585</v>
       </c>
       <c r="L4" t="n">
-        <v>113626.6648779584</v>
+        <v>113626.6648779585</v>
       </c>
       <c r="M4" t="n">
         <v>83642.99703601305</v>
@@ -26456,7 +26456,7 @@
         <v>83642.99703601304</v>
       </c>
       <c r="O4" t="n">
-        <v>83642.99703601304</v>
+        <v>83642.99703601302</v>
       </c>
       <c r="P4" t="n">
         <v>83642.99703601305</v>
@@ -26478,19 +26478,19 @@
         <v>34353.73115816552</v>
       </c>
       <c r="E5" t="n">
-        <v>45563.83037388085</v>
+        <v>45563.83037388086</v>
       </c>
       <c r="F5" t="n">
-        <v>45563.83037388085</v>
+        <v>45563.83037388086</v>
       </c>
       <c r="G5" t="n">
-        <v>45563.83037388085</v>
+        <v>45563.83037388086</v>
       </c>
       <c r="H5" t="n">
-        <v>45563.83037388085</v>
+        <v>45563.83037388086</v>
       </c>
       <c r="I5" t="n">
-        <v>66482.26882613375</v>
+        <v>66482.26882613376</v>
       </c>
       <c r="J5" t="n">
         <v>66482.26882613375</v>
@@ -26502,10 +26502,10 @@
         <v>66482.26882613375</v>
       </c>
       <c r="M5" t="n">
-        <v>45563.83037388086</v>
+        <v>45563.83037388085</v>
       </c>
       <c r="N5" t="n">
-        <v>45563.83037388086</v>
+        <v>45563.83037388085</v>
       </c>
       <c r="O5" t="n">
         <v>45563.83037388085</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174050.0416681839</v>
+        <v>174050.0416681834</v>
       </c>
       <c r="C6" t="n">
-        <v>178052.3977885441</v>
+        <v>178052.397788544</v>
       </c>
       <c r="D6" t="n">
-        <v>178052.3977885437</v>
+        <v>178052.3977885442</v>
       </c>
       <c r="E6" t="n">
-        <v>-203161.7735703101</v>
+        <v>-209256.700267763</v>
       </c>
       <c r="F6" t="n">
-        <v>276759.0918520646</v>
+        <v>270664.165154612</v>
       </c>
       <c r="G6" t="n">
-        <v>276759.0918520647</v>
+        <v>270664.1651546119</v>
       </c>
       <c r="H6" t="n">
-        <v>276759.0918520646</v>
+        <v>270664.1651546117</v>
       </c>
       <c r="I6" t="n">
-        <v>216734.6031798487</v>
+        <v>213296.7282773227</v>
       </c>
       <c r="J6" t="n">
-        <v>305100.7908593633</v>
+        <v>301662.9159568375</v>
       </c>
       <c r="K6" t="n">
-        <v>308225.5912005979</v>
+        <v>304787.7162980719</v>
       </c>
       <c r="L6" t="n">
-        <v>308225.5912005977</v>
+        <v>304787.7162980718</v>
       </c>
       <c r="M6" t="n">
-        <v>212047.7546594416</v>
+        <v>205952.827961989</v>
       </c>
       <c r="N6" t="n">
-        <v>276759.0918520646</v>
+        <v>270664.1651546119</v>
       </c>
       <c r="O6" t="n">
-        <v>276759.0918520646</v>
+        <v>270664.165154612</v>
       </c>
       <c r="P6" t="n">
-        <v>276759.0918520647</v>
+        <v>270664.1651546119</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>372.9905667326292</v>
+        <v>372.9905667326294</v>
       </c>
       <c r="F3" t="n">
-        <v>372.9905667326293</v>
+        <v>372.9905667326294</v>
       </c>
       <c r="G3" t="n">
-        <v>372.9905667326293</v>
+        <v>372.9905667326294</v>
       </c>
       <c r="H3" t="n">
-        <v>372.9905667326293</v>
+        <v>372.9905667326294</v>
       </c>
       <c r="I3" t="n">
-        <v>372.9905667326293</v>
+        <v>372.9905667326294</v>
       </c>
       <c r="J3" t="n">
         <v>372.9905667326293</v>
@@ -26798,19 +26798,19 @@
         <v>11.94294668035388</v>
       </c>
       <c r="E4" t="n">
-        <v>615.6683555774596</v>
+        <v>615.6683555774595</v>
       </c>
       <c r="F4" t="n">
-        <v>615.6683555774596</v>
+        <v>615.6683555774595</v>
       </c>
       <c r="G4" t="n">
-        <v>615.6683555774596</v>
+        <v>615.6683555774595</v>
       </c>
       <c r="H4" t="n">
-        <v>615.6683555774596</v>
+        <v>615.6683555774595</v>
       </c>
       <c r="I4" t="n">
-        <v>959.7216195947767</v>
+        <v>959.7216195947769</v>
       </c>
       <c r="J4" t="n">
         <v>959.7216195947767</v>
@@ -26822,10 +26822,10 @@
         <v>959.7216195947767</v>
       </c>
       <c r="M4" t="n">
-        <v>615.6683555774597</v>
+        <v>615.6683555774596</v>
       </c>
       <c r="N4" t="n">
-        <v>615.6683555774597</v>
+        <v>615.6683555774596</v>
       </c>
       <c r="O4" t="n">
         <v>615.6683555774596</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>372.9905667326292</v>
+        <v>372.9905667326294</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>603.7254088971058</v>
+        <v>603.7254088971057</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>344.0532640173171</v>
+        <v>344.0532640173174</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94294668035388</v>
+        <v>11.94294668035382</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>259.6721448797889</v>
+        <v>259.6721448797886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>603.7254088971058</v>
+        <v>603.7254088971057</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>378.1601574424851</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>366.1714744001668</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
@@ -27399,7 +27399,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>159.1460801229381</v>
+        <v>170.5793581501676</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>173.4137389355957</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
@@ -27447,7 +27447,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.096768216796</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.8823016730944</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
@@ -27466,10 +27466,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>133.6147831633436</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>122.8275126335687</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>47.24347953564978</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>174.8553061153208</v>
+        <v>176.2789053596189</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>204.366897797319</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -27523,7 +27523,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>183.9948715606295</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>171.2004675614803</v>
       </c>
       <c r="C4" t="n">
         <v>167.9198098429365</v>
@@ -27548,16 +27548,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>139.0129017441268</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>145.835972088165</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>130.8180672729944</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>26.20902125249397</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>137.5072161357099</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>199.6297182899954</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>272.3753904354372</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
@@ -27624,10 +27624,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>390.3281940418299</v>
       </c>
       <c r="F5" t="n">
-        <v>399.4903313468757</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27706,16 +27706,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>122.8275126335687</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>115.4982682965944</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>86.99553219841505</v>
       </c>
       <c r="I6" t="n">
-        <v>55.75551577648572</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>47.24347953564978</v>
       </c>
       <c r="S6" t="n">
-        <v>139.3285454370332</v>
+        <v>140.7521446813314</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.719814997536</v>
+        <v>169.7768683171821</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
@@ -27797,7 +27797,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>47.51371951961512</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>26.20902125249397</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -27827,22 +27827,22 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>218.9042169721241</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>247.6086039611059</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>271.351890787421</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>216.9969927832241</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.8148072196457</v>
+        <v>209.29545978359</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>380.3185152588985</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>398.0667321025775</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.7889569587513</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -27915,7 +27915,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.3999121878506</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
@@ -27940,16 +27940,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>135.0383824076418</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>121.4039133892705</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>115.4982682965944</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>86.99553219841505</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>47.24347953564978</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>174.8553061153208</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>204.366897797319</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>215.5923188900937</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
@@ -28022,10 +28022,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>139.0129017441268</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>156.7112037097728</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28034,7 +28034,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>47.51371951961512</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>26.20902125249397</v>
+        <v>27.63262049679216</v>
       </c>
       <c r="R10" t="n">
-        <v>136.0836168914117</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>218.9042169721241</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
@@ -28073,7 +28073,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>271.351890787421</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.499459564754287</v>
+        <v>1.499459564754288</v>
       </c>
       <c r="H11" t="n">
         <v>15.35634026753985</v>
       </c>
       <c r="I11" t="n">
-        <v>57.80791487018972</v>
+        <v>57.80791487018973</v>
       </c>
       <c r="J11" t="n">
-        <v>127.2647562340643</v>
+        <v>127.2647562340644</v>
       </c>
       <c r="K11" t="n">
-        <v>190.7368796101133</v>
+        <v>190.7368796101134</v>
       </c>
       <c r="L11" t="n">
-        <v>236.6259652649624</v>
+        <v>236.6259652649625</v>
       </c>
       <c r="M11" t="n">
-        <v>263.2919792996614</v>
+        <v>263.2919792996615</v>
       </c>
       <c r="N11" t="n">
         <v>267.5523187880196</v>
       </c>
       <c r="O11" t="n">
-        <v>252.6420677409941</v>
+        <v>252.6420677409942</v>
       </c>
       <c r="P11" t="n">
-        <v>215.6241597361226</v>
+        <v>215.6241597361227</v>
       </c>
       <c r="Q11" t="n">
         <v>161.9247640733597</v>
       </c>
       <c r="R11" t="n">
-        <v>94.19042688449659</v>
+        <v>94.19042688449662</v>
       </c>
       <c r="S11" t="n">
         <v>34.16893483183836</v>
       </c>
       <c r="T11" t="n">
-        <v>6.563884244711896</v>
+        <v>6.563884244711898</v>
       </c>
       <c r="U11" t="n">
         <v>0.119956765180343</v>
@@ -31831,25 +31831,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8022815963682969</v>
+        <v>0.8022815963682971</v>
       </c>
       <c r="H12" t="n">
-        <v>7.748351207030658</v>
+        <v>7.748351207030661</v>
       </c>
       <c r="I12" t="n">
-        <v>27.62241461180321</v>
+        <v>27.62241461180322</v>
       </c>
       <c r="J12" t="n">
-        <v>75.79801696214687</v>
+        <v>75.79801696214689</v>
       </c>
       <c r="K12" t="n">
         <v>129.5508839188228</v>
       </c>
       <c r="L12" t="n">
-        <v>174.1971510009322</v>
+        <v>174.1971510009323</v>
       </c>
       <c r="M12" t="n">
-        <v>203.2798588692829</v>
+        <v>203.279858869283</v>
       </c>
       <c r="N12" t="n">
         <v>208.6600718554546</v>
@@ -31858,22 +31858,22 @@
         <v>190.8832006938202</v>
       </c>
       <c r="P12" t="n">
-        <v>153.2005971170303</v>
+        <v>153.2005971170304</v>
       </c>
       <c r="Q12" t="n">
         <v>102.4105420206268</v>
       </c>
       <c r="R12" t="n">
-        <v>49.81183455346322</v>
+        <v>49.81183455346324</v>
       </c>
       <c r="S12" t="n">
         <v>14.90202877464796</v>
       </c>
       <c r="T12" t="n">
-        <v>3.233757837993266</v>
+        <v>3.233757837993267</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0527816839715985</v>
+        <v>0.05278168397159852</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,37 +31910,37 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6726059400096592</v>
+        <v>0.6726059400096595</v>
       </c>
       <c r="H13" t="n">
-        <v>5.980078266631338</v>
+        <v>5.98007826663134</v>
       </c>
       <c r="I13" t="n">
         <v>20.22709499592685</v>
       </c>
       <c r="J13" t="n">
-        <v>47.5532399586829</v>
+        <v>47.55323995868292</v>
       </c>
       <c r="K13" t="n">
-        <v>78.14458103021312</v>
+        <v>78.14458103021315</v>
       </c>
       <c r="L13" t="n">
-        <v>99.99815948107245</v>
+        <v>99.99815948107248</v>
       </c>
       <c r="M13" t="n">
         <v>105.4340383962414</v>
       </c>
       <c r="N13" t="n">
-        <v>102.9270526198418</v>
+        <v>102.9270526198419</v>
       </c>
       <c r="O13" t="n">
-        <v>95.06979232063804</v>
+        <v>95.06979232063809</v>
       </c>
       <c r="P13" t="n">
-        <v>81.34863114444093</v>
+        <v>81.34863114444096</v>
       </c>
       <c r="Q13" t="n">
-        <v>56.32157557662701</v>
+        <v>56.32157557662703</v>
       </c>
       <c r="R13" t="n">
         <v>30.24280890261613</v>
@@ -31949,10 +31949,10 @@
         <v>11.72168715453197</v>
       </c>
       <c r="T13" t="n">
-        <v>2.873861743677634</v>
+        <v>2.873861743677635</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03668759672779964</v>
+        <v>0.03668759672779965</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.499459564754287</v>
+        <v>1.499459564754288</v>
       </c>
       <c r="H14" t="n">
         <v>15.35634026753985</v>
@@ -31998,13 +31998,13 @@
         <v>57.80791487018973</v>
       </c>
       <c r="J14" t="n">
-        <v>127.2647562340643</v>
+        <v>127.2647562340644</v>
       </c>
       <c r="K14" t="n">
         <v>190.7368796101134</v>
       </c>
       <c r="L14" t="n">
-        <v>236.6259652649624</v>
+        <v>236.6259652649625</v>
       </c>
       <c r="M14" t="n">
         <v>263.2919792996615</v>
@@ -32022,13 +32022,13 @@
         <v>161.9247640733597</v>
       </c>
       <c r="R14" t="n">
-        <v>94.1904268844966</v>
+        <v>94.19042688449662</v>
       </c>
       <c r="S14" t="n">
         <v>34.16893483183836</v>
       </c>
       <c r="T14" t="n">
-        <v>6.563884244711897</v>
+        <v>6.563884244711898</v>
       </c>
       <c r="U14" t="n">
         <v>0.119956765180343</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.802281596368297</v>
+        <v>0.8022815963682971</v>
       </c>
       <c r="H15" t="n">
-        <v>7.748351207030659</v>
+        <v>7.748351207030661</v>
       </c>
       <c r="I15" t="n">
-        <v>27.62241461180321</v>
+        <v>27.62241461180322</v>
       </c>
       <c r="J15" t="n">
-        <v>75.79801696214687</v>
+        <v>75.79801696214689</v>
       </c>
       <c r="K15" t="n">
         <v>129.5508839188228</v>
       </c>
       <c r="L15" t="n">
-        <v>174.1971510009322</v>
+        <v>174.1971510009323</v>
       </c>
       <c r="M15" t="n">
-        <v>203.2798588692829</v>
+        <v>203.279858869283</v>
       </c>
       <c r="N15" t="n">
         <v>208.6600718554546</v>
@@ -32107,10 +32107,10 @@
         <v>14.90202877464796</v>
       </c>
       <c r="T15" t="n">
-        <v>3.233757837993266</v>
+        <v>3.233757837993267</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05278168397159851</v>
+        <v>0.05278168397159852</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,34 +32147,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6726059400096593</v>
+        <v>0.6726059400096595</v>
       </c>
       <c r="H16" t="n">
-        <v>5.980078266631339</v>
+        <v>5.98007826663134</v>
       </c>
       <c r="I16" t="n">
         <v>20.22709499592685</v>
       </c>
       <c r="J16" t="n">
-        <v>47.55323995868291</v>
+        <v>47.55323995868292</v>
       </c>
       <c r="K16" t="n">
-        <v>78.14458103021313</v>
+        <v>78.14458103021315</v>
       </c>
       <c r="L16" t="n">
-        <v>99.99815948107246</v>
+        <v>99.99815948107248</v>
       </c>
       <c r="M16" t="n">
         <v>105.4340383962414</v>
       </c>
       <c r="N16" t="n">
-        <v>102.9270526198418</v>
+        <v>102.9270526198419</v>
       </c>
       <c r="O16" t="n">
-        <v>95.06979232063807</v>
+        <v>95.06979232063809</v>
       </c>
       <c r="P16" t="n">
-        <v>81.34863114444094</v>
+        <v>81.34863114444096</v>
       </c>
       <c r="Q16" t="n">
         <v>56.32157557662703</v>
@@ -32186,10 +32186,10 @@
         <v>11.72168715453197</v>
       </c>
       <c r="T16" t="n">
-        <v>2.873861743677634</v>
+        <v>2.873861743677635</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03668759672779964</v>
+        <v>0.03668759672779965</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.499459564754287</v>
+        <v>1.499459564754288</v>
       </c>
       <c r="H17" t="n">
         <v>15.35634026753985</v>
@@ -32235,13 +32235,13 @@
         <v>57.80791487018973</v>
       </c>
       <c r="J17" t="n">
-        <v>127.2647562340643</v>
+        <v>127.2647562340644</v>
       </c>
       <c r="K17" t="n">
         <v>190.7368796101134</v>
       </c>
       <c r="L17" t="n">
-        <v>236.6259652649624</v>
+        <v>236.6259652649625</v>
       </c>
       <c r="M17" t="n">
         <v>263.2919792996615</v>
@@ -32259,13 +32259,13 @@
         <v>161.9247640733597</v>
       </c>
       <c r="R17" t="n">
-        <v>94.1904268844966</v>
+        <v>94.19042688449662</v>
       </c>
       <c r="S17" t="n">
         <v>34.16893483183836</v>
       </c>
       <c r="T17" t="n">
-        <v>6.563884244711897</v>
+        <v>6.563884244711898</v>
       </c>
       <c r="U17" t="n">
         <v>0.119956765180343</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.802281596368297</v>
+        <v>0.8022815963682971</v>
       </c>
       <c r="H18" t="n">
-        <v>7.748351207030659</v>
+        <v>7.748351207030661</v>
       </c>
       <c r="I18" t="n">
-        <v>27.62241461180321</v>
+        <v>27.62241461180322</v>
       </c>
       <c r="J18" t="n">
-        <v>75.79801696214687</v>
+        <v>75.79801696214689</v>
       </c>
       <c r="K18" t="n">
         <v>129.5508839188228</v>
       </c>
       <c r="L18" t="n">
-        <v>174.1971510009322</v>
+        <v>174.1971510009323</v>
       </c>
       <c r="M18" t="n">
-        <v>203.2798588692829</v>
+        <v>203.279858869283</v>
       </c>
       <c r="N18" t="n">
         <v>208.6600718554546</v>
@@ -32344,10 +32344,10 @@
         <v>14.90202877464796</v>
       </c>
       <c r="T18" t="n">
-        <v>3.233757837993266</v>
+        <v>3.233757837993267</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05278168397159851</v>
+        <v>0.05278168397159852</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,34 +32384,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6726059400096593</v>
+        <v>0.6726059400096595</v>
       </c>
       <c r="H19" t="n">
-        <v>5.980078266631339</v>
+        <v>5.98007826663134</v>
       </c>
       <c r="I19" t="n">
         <v>20.22709499592685</v>
       </c>
       <c r="J19" t="n">
-        <v>47.55323995868291</v>
+        <v>47.55323995868292</v>
       </c>
       <c r="K19" t="n">
-        <v>78.14458103021313</v>
+        <v>78.14458103021315</v>
       </c>
       <c r="L19" t="n">
-        <v>99.99815948107246</v>
+        <v>99.99815948107248</v>
       </c>
       <c r="M19" t="n">
         <v>105.4340383962414</v>
       </c>
       <c r="N19" t="n">
-        <v>102.9270526198418</v>
+        <v>102.9270526198419</v>
       </c>
       <c r="O19" t="n">
-        <v>95.06979232063807</v>
+        <v>95.06979232063809</v>
       </c>
       <c r="P19" t="n">
-        <v>81.34863114444094</v>
+        <v>81.34863114444096</v>
       </c>
       <c r="Q19" t="n">
         <v>56.32157557662703</v>
@@ -32423,10 +32423,10 @@
         <v>11.72168715453197</v>
       </c>
       <c r="T19" t="n">
-        <v>2.873861743677634</v>
+        <v>2.873861743677635</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03668759672779964</v>
+        <v>0.03668759672779965</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.499459564754287</v>
+        <v>1.499459564754288</v>
       </c>
       <c r="H20" t="n">
         <v>15.35634026753985</v>
@@ -32472,13 +32472,13 @@
         <v>57.80791487018973</v>
       </c>
       <c r="J20" t="n">
-        <v>127.2647562340643</v>
+        <v>127.2647562340644</v>
       </c>
       <c r="K20" t="n">
         <v>190.7368796101134</v>
       </c>
       <c r="L20" t="n">
-        <v>236.6259652649624</v>
+        <v>236.6259652649625</v>
       </c>
       <c r="M20" t="n">
         <v>263.2919792996615</v>
@@ -32496,13 +32496,13 @@
         <v>161.9247640733597</v>
       </c>
       <c r="R20" t="n">
-        <v>94.1904268844966</v>
+        <v>94.19042688449662</v>
       </c>
       <c r="S20" t="n">
         <v>34.16893483183836</v>
       </c>
       <c r="T20" t="n">
-        <v>6.563884244711897</v>
+        <v>6.563884244711898</v>
       </c>
       <c r="U20" t="n">
         <v>0.119956765180343</v>
@@ -32542,25 +32542,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.802281596368297</v>
+        <v>0.8022815963682971</v>
       </c>
       <c r="H21" t="n">
-        <v>7.748351207030659</v>
+        <v>7.748351207030661</v>
       </c>
       <c r="I21" t="n">
-        <v>27.62241461180321</v>
+        <v>27.62241461180322</v>
       </c>
       <c r="J21" t="n">
-        <v>75.79801696214687</v>
+        <v>75.79801696214689</v>
       </c>
       <c r="K21" t="n">
         <v>129.5508839188228</v>
       </c>
       <c r="L21" t="n">
-        <v>174.1971510009322</v>
+        <v>174.1971510009323</v>
       </c>
       <c r="M21" t="n">
-        <v>203.2798588692829</v>
+        <v>203.279858869283</v>
       </c>
       <c r="N21" t="n">
         <v>208.6600718554546</v>
@@ -32581,10 +32581,10 @@
         <v>14.90202877464796</v>
       </c>
       <c r="T21" t="n">
-        <v>3.233757837993266</v>
+        <v>3.233757837993267</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05278168397159851</v>
+        <v>0.05278168397159852</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,34 +32621,34 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6726059400096593</v>
+        <v>0.6726059400096595</v>
       </c>
       <c r="H22" t="n">
-        <v>5.980078266631339</v>
+        <v>5.98007826663134</v>
       </c>
       <c r="I22" t="n">
         <v>20.22709499592685</v>
       </c>
       <c r="J22" t="n">
-        <v>47.55323995868291</v>
+        <v>47.55323995868292</v>
       </c>
       <c r="K22" t="n">
-        <v>78.14458103021313</v>
+        <v>78.14458103021315</v>
       </c>
       <c r="L22" t="n">
-        <v>99.99815948107246</v>
+        <v>99.99815948107248</v>
       </c>
       <c r="M22" t="n">
         <v>105.4340383962414</v>
       </c>
       <c r="N22" t="n">
-        <v>102.9270526198418</v>
+        <v>102.9270526198419</v>
       </c>
       <c r="O22" t="n">
-        <v>95.06979232063807</v>
+        <v>95.06979232063809</v>
       </c>
       <c r="P22" t="n">
-        <v>81.34863114444094</v>
+        <v>81.34863114444096</v>
       </c>
       <c r="Q22" t="n">
         <v>56.32157557662703</v>
@@ -32660,10 +32660,10 @@
         <v>11.72168715453197</v>
       </c>
       <c r="T22" t="n">
-        <v>2.873861743677634</v>
+        <v>2.873861743677635</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03668759672779964</v>
+        <v>0.03668759672779965</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.499459564754287</v>
+        <v>1.499459564754288</v>
       </c>
       <c r="H23" t="n">
         <v>15.35634026753985</v>
@@ -32709,13 +32709,13 @@
         <v>57.80791487018973</v>
       </c>
       <c r="J23" t="n">
-        <v>127.2647562340643</v>
+        <v>127.2647562340644</v>
       </c>
       <c r="K23" t="n">
         <v>190.7368796101134</v>
       </c>
       <c r="L23" t="n">
-        <v>236.6259652649624</v>
+        <v>236.6259652649625</v>
       </c>
       <c r="M23" t="n">
         <v>263.2919792996615</v>
@@ -32733,13 +32733,13 @@
         <v>161.9247640733597</v>
       </c>
       <c r="R23" t="n">
-        <v>94.1904268844966</v>
+        <v>94.19042688449662</v>
       </c>
       <c r="S23" t="n">
         <v>34.16893483183836</v>
       </c>
       <c r="T23" t="n">
-        <v>6.563884244711897</v>
+        <v>6.563884244711898</v>
       </c>
       <c r="U23" t="n">
         <v>0.119956765180343</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.802281596368297</v>
+        <v>0.8022815963682971</v>
       </c>
       <c r="H24" t="n">
-        <v>7.748351207030659</v>
+        <v>7.748351207030661</v>
       </c>
       <c r="I24" t="n">
-        <v>27.62241461180321</v>
+        <v>27.62241461180322</v>
       </c>
       <c r="J24" t="n">
-        <v>75.79801696214687</v>
+        <v>75.79801696214689</v>
       </c>
       <c r="K24" t="n">
         <v>129.5508839188228</v>
       </c>
       <c r="L24" t="n">
-        <v>174.1971510009322</v>
+        <v>174.1971510009323</v>
       </c>
       <c r="M24" t="n">
-        <v>203.2798588692829</v>
+        <v>203.279858869283</v>
       </c>
       <c r="N24" t="n">
         <v>208.6600718554546</v>
@@ -32818,10 +32818,10 @@
         <v>14.90202877464796</v>
       </c>
       <c r="T24" t="n">
-        <v>3.233757837993266</v>
+        <v>3.233757837993267</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05278168397159851</v>
+        <v>0.05278168397159852</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,34 +32858,34 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6726059400096593</v>
+        <v>0.6726059400096595</v>
       </c>
       <c r="H25" t="n">
-        <v>5.980078266631339</v>
+        <v>5.98007826663134</v>
       </c>
       <c r="I25" t="n">
         <v>20.22709499592685</v>
       </c>
       <c r="J25" t="n">
-        <v>47.55323995868291</v>
+        <v>47.55323995868292</v>
       </c>
       <c r="K25" t="n">
-        <v>78.14458103021313</v>
+        <v>78.14458103021315</v>
       </c>
       <c r="L25" t="n">
-        <v>99.99815948107246</v>
+        <v>99.99815948107248</v>
       </c>
       <c r="M25" t="n">
         <v>105.4340383962414</v>
       </c>
       <c r="N25" t="n">
-        <v>102.9270526198418</v>
+        <v>102.9270526198419</v>
       </c>
       <c r="O25" t="n">
-        <v>95.06979232063807</v>
+        <v>95.06979232063809</v>
       </c>
       <c r="P25" t="n">
-        <v>81.34863114444094</v>
+        <v>81.34863114444096</v>
       </c>
       <c r="Q25" t="n">
         <v>56.32157557662703</v>
@@ -32897,10 +32897,10 @@
         <v>11.72168715453197</v>
       </c>
       <c r="T25" t="n">
-        <v>2.873861743677634</v>
+        <v>2.873861743677635</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03668759672779964</v>
+        <v>0.03668759672779965</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34701,16 +34701,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>11.46040338013756</v>
-      </c>
-      <c r="L2" t="n">
-        <v>11.94294668035388</v>
       </c>
       <c r="M2" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="O2" t="n">
         <v>11.94294668035388</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="L3" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="M3" t="n">
-        <v>11.46040338013756</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="K5" t="n">
-        <v>11.46040338013756</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>11.94294668035388</v>
@@ -34950,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="Q5" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>11.94294668035388</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>11.46040338013756</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,19 +35096,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="M7" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="N7" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>11.46040338013756</v>
@@ -35184,16 +35184,16 @@
         <v>11.94294668035388</v>
       </c>
       <c r="N8" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="O8" t="n">
-        <v>11.46040338013756</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="O9" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="K9" t="n">
-        <v>11.46040338013756</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>11.94294668035388</v>
@@ -35333,16 +35333,16 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="L10" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="N10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>11.94294668035388</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>199.9905585298276</v>
       </c>
       <c r="K11" t="n">
         <v>433.3029119785808</v>
       </c>
       <c r="L11" t="n">
-        <v>45.06575310184778</v>
+        <v>45.06575310184786</v>
       </c>
       <c r="M11" t="n">
-        <v>615.6683555774596</v>
+        <v>76.13566480250245</v>
       </c>
       <c r="N11" t="n">
-        <v>615.6683555774596</v>
+        <v>615.6683555774595</v>
       </c>
       <c r="O11" t="n">
-        <v>65.68727096087366</v>
+        <v>364.2381389892397</v>
       </c>
       <c r="P11" t="n">
         <v>446.0856713078936</v>
       </c>
       <c r="Q11" t="n">
-        <v>216.3196146914825</v>
+        <v>257.3108789082456</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>136.6607912380117</v>
       </c>
       <c r="K12" t="n">
-        <v>17.55471475215609</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L12" t="n">
-        <v>61.62171742978441</v>
+        <v>543.7141663242815</v>
       </c>
       <c r="M12" t="n">
-        <v>615.6683555774596</v>
+        <v>498.9709549371968</v>
       </c>
       <c r="N12" t="n">
-        <v>615.6683555774596</v>
+        <v>101.9449307877463</v>
       </c>
       <c r="O12" t="n">
-        <v>587.0447671424574</v>
+        <v>75.02375208270914</v>
       </c>
       <c r="P12" t="n">
-        <v>141.8034068459306</v>
+        <v>458.3479903248053</v>
       </c>
       <c r="Q12" t="n">
         <v>261.7758246323382</v>
@@ -35588,7 +35588,7 @@
         <v>144.9531601627619</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.16960764377916</v>
+        <v>18.16960764377918</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>199.9905585298276</v>
       </c>
       <c r="K14" t="n">
-        <v>188.894201091362</v>
+        <v>433.3029119785808</v>
       </c>
       <c r="L14" t="n">
         <v>588.0253320174334</v>
       </c>
       <c r="M14" t="n">
-        <v>76.13566480250239</v>
+        <v>76.13566480250245</v>
       </c>
       <c r="N14" t="n">
-        <v>615.6683555774596</v>
+        <v>133.5302879569163</v>
       </c>
       <c r="O14" t="n">
-        <v>65.68727096087369</v>
+        <v>560.7275066024426</v>
       </c>
       <c r="P14" t="n">
         <v>446.0856713078936</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.3108789082455</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>136.6607912380117</v>
       </c>
       <c r="K15" t="n">
-        <v>17.55471475215609</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L15" t="n">
-        <v>272.9495332207261</v>
+        <v>543.7141663242815</v>
       </c>
       <c r="M15" t="n">
-        <v>87.79595630764305</v>
+        <v>615.6683555774595</v>
       </c>
       <c r="N15" t="n">
-        <v>615.6683555774596</v>
+        <v>101.9449307877463</v>
       </c>
       <c r="O15" t="n">
         <v>587.0447671424574</v>
       </c>
       <c r="P15" t="n">
-        <v>458.3479903248053</v>
+        <v>91.40539925713279</v>
       </c>
       <c r="Q15" t="n">
-        <v>261.7758246323382</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35825,7 +35825,7 @@
         <v>144.9531601627619</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.16960764377917</v>
+        <v>18.16960764377918</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>11.91387563606665</v>
+        <v>433.3029119785808</v>
       </c>
       <c r="L17" t="n">
         <v>588.0253320174334</v>
       </c>
       <c r="M17" t="n">
-        <v>615.6683555774596</v>
+        <v>615.6683555774595</v>
       </c>
       <c r="N17" t="n">
-        <v>376.4046337689837</v>
+        <v>615.6683555774595</v>
       </c>
       <c r="O17" t="n">
-        <v>560.7275066024426</v>
+        <v>157.3856273596981</v>
       </c>
       <c r="P17" t="n">
-        <v>27.74735068496616</v>
+        <v>27.74735068496619</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.3108789082455</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>17.55471475215609</v>
+        <v>17.55471475215612</v>
       </c>
       <c r="L18" t="n">
-        <v>409.6103244587378</v>
+        <v>295.7395244208392</v>
       </c>
       <c r="M18" t="n">
-        <v>87.79595630764305</v>
+        <v>615.6683555774595</v>
       </c>
       <c r="N18" t="n">
-        <v>615.6683555774596</v>
+        <v>615.6683555774595</v>
       </c>
       <c r="O18" t="n">
         <v>587.0447671424574</v>
       </c>
       <c r="P18" t="n">
-        <v>458.3479903248053</v>
+        <v>44.34639109288703</v>
       </c>
       <c r="Q18" t="n">
         <v>261.7758246323382</v>
@@ -36062,7 +36062,7 @@
         <v>144.9531601627619</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.16960764377917</v>
+        <v>18.16960764377918</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>199.9905585298276</v>
       </c>
       <c r="K20" t="n">
-        <v>11.91387563606665</v>
+        <v>433.3029119785808</v>
       </c>
       <c r="L20" t="n">
-        <v>45.0657531018478</v>
+        <v>588.0253320174334</v>
       </c>
       <c r="M20" t="n">
-        <v>615.6683555774596</v>
+        <v>76.13566480250245</v>
       </c>
       <c r="N20" t="n">
-        <v>615.6683555774596</v>
+        <v>615.6683555774595</v>
       </c>
       <c r="O20" t="n">
-        <v>560.7275066024426</v>
+        <v>78.58943898189946</v>
       </c>
       <c r="P20" t="n">
         <v>446.0856713078936</v>
       </c>
       <c r="Q20" t="n">
-        <v>142.668415392428</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>136.6607912380117</v>
       </c>
       <c r="K21" t="n">
-        <v>17.55471475215609</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L21" t="n">
-        <v>543.7141663242813</v>
+        <v>442.8681498940868</v>
       </c>
       <c r="M21" t="n">
-        <v>615.6683555774596</v>
+        <v>87.79595630764308</v>
       </c>
       <c r="N21" t="n">
-        <v>615.6683555774596</v>
+        <v>101.9449307877463</v>
       </c>
       <c r="O21" t="n">
-        <v>186.8443506394359</v>
+        <v>587.0447671424574</v>
       </c>
       <c r="P21" t="n">
         <v>458.3479903248053</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>261.7758246323382</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36299,7 +36299,7 @@
         <v>144.9531601627619</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.16960764377917</v>
+        <v>18.16960764377918</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>588.0253320174334</v>
       </c>
       <c r="M23" t="n">
-        <v>660.5032583431846</v>
+        <v>660.5032583431847</v>
       </c>
       <c r="N23" t="n">
         <v>649.7052063513688</v>
@@ -36378,10 +36378,10 @@
         <v>446.0856713078936</v>
       </c>
       <c r="Q23" t="n">
-        <v>257.3108789082455</v>
+        <v>257.3108789082456</v>
       </c>
       <c r="R23" t="n">
-        <v>4.458523245391419</v>
+        <v>4.458523245391433</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>35.81477480781696</v>
       </c>
       <c r="K24" t="n">
-        <v>17.55471475215609</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L24" t="n">
-        <v>61.62171742978444</v>
+        <v>543.7141663242815</v>
       </c>
       <c r="M24" t="n">
-        <v>326.3629014796896</v>
+        <v>87.79595630764308</v>
       </c>
       <c r="N24" t="n">
-        <v>725.0900174343658</v>
+        <v>101.9449307877463</v>
       </c>
       <c r="O24" t="n">
         <v>587.0447671424574</v>
@@ -36536,7 +36536,7 @@
         <v>144.9531601627619</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.16960764377917</v>
+        <v>18.16960764377918</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>136.6607912380117</v>
       </c>
       <c r="K27" t="n">
-        <v>17.55471475215609</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L27" t="n">
         <v>543.7141663242813</v>
@@ -36685,10 +36685,10 @@
         <v>87.79595630764305</v>
       </c>
       <c r="N27" t="n">
-        <v>344.9037224739039</v>
+        <v>101.9449307877463</v>
       </c>
       <c r="O27" t="n">
-        <v>587.0447671424574</v>
+        <v>486.1987507122631</v>
       </c>
       <c r="P27" t="n">
         <v>458.3479903248053</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>35.81477480781709</v>
       </c>
       <c r="K30" t="n">
-        <v>17.55471475215609</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L30" t="n">
-        <v>61.62171742978444</v>
+        <v>543.7141663242813</v>
       </c>
       <c r="M30" t="n">
-        <v>693.212539182643</v>
+        <v>87.79595630764305</v>
       </c>
       <c r="N30" t="n">
-        <v>725.0900174343658</v>
+        <v>101.9449307877463</v>
       </c>
       <c r="O30" t="n">
         <v>587.0447671424574</v>
       </c>
       <c r="P30" t="n">
-        <v>353.2741772541902</v>
+        <v>458.3479903248053</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>261.7758246323382</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>136.6607912380117</v>
       </c>
       <c r="K33" t="n">
         <v>361.3595228685083</v>
@@ -37159,16 +37159,16 @@
         <v>87.79595630764305</v>
       </c>
       <c r="N33" t="n">
-        <v>725.0900174343658</v>
+        <v>101.9449307877463</v>
       </c>
       <c r="O33" t="n">
-        <v>75.02375208270911</v>
+        <v>486.1987507122631</v>
       </c>
       <c r="P33" t="n">
         <v>458.3479903248053</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.4665278532839</v>
+        <v>261.7758246323382</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>199.9905585298276</v>
       </c>
       <c r="K35" t="n">
-        <v>107.1737462594337</v>
+        <v>325.0107098475777</v>
       </c>
       <c r="L35" t="n">
         <v>588.0253320174334</v>
       </c>
       <c r="M35" t="n">
-        <v>615.6683555774597</v>
+        <v>615.6683555774596</v>
       </c>
       <c r="N35" t="n">
-        <v>81.15420461578952</v>
+        <v>615.6683555774596</v>
       </c>
       <c r="O35" t="n">
-        <v>560.7275066024426</v>
+        <v>65.68727096087369</v>
       </c>
       <c r="P35" t="n">
         <v>27.74735068496616</v>
       </c>
       <c r="Q35" t="n">
-        <v>257.3108789082455</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>136.6607912380117</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>17.55471475215609</v>
+        <v>31.35589748105215</v>
       </c>
       <c r="L36" t="n">
-        <v>159.0787331828271</v>
+        <v>543.7141663242813</v>
       </c>
       <c r="M36" t="n">
-        <v>615.6683555774597</v>
+        <v>615.6683555774596</v>
       </c>
       <c r="N36" t="n">
-        <v>615.6683555774597</v>
+        <v>615.6683555774596</v>
       </c>
       <c r="O36" t="n">
         <v>587.0447671424574</v>
@@ -37405,7 +37405,7 @@
         <v>44.34639109288703</v>
       </c>
       <c r="Q36" t="n">
-        <v>261.7758246323382</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>199.9905585298276</v>
       </c>
       <c r="K38" t="n">
-        <v>433.3029119785808</v>
+        <v>11.91387563606665</v>
       </c>
       <c r="L38" t="n">
         <v>588.0253320174334</v>
@@ -37554,19 +37554,19 @@
         <v>76.13566480250239</v>
       </c>
       <c r="N38" t="n">
-        <v>290.0992064262078</v>
+        <v>615.6683555774596</v>
       </c>
       <c r="O38" t="n">
         <v>560.7275066024426</v>
       </c>
       <c r="P38" t="n">
-        <v>27.74735068496616</v>
+        <v>385.3366400298653</v>
       </c>
       <c r="Q38" t="n">
-        <v>257.3108789082455</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.458523245391419</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>17.55471475215609</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L39" t="n">
         <v>61.62171742978444</v>
       </c>
       <c r="M39" t="n">
-        <v>615.6683555774597</v>
+        <v>605.7031800099571</v>
       </c>
       <c r="N39" t="n">
-        <v>435.7845633365957</v>
+        <v>101.9449307877463</v>
       </c>
       <c r="O39" t="n">
         <v>587.0447671424574</v>
@@ -37785,13 +37785,13 @@
         <v>433.3029119785808</v>
       </c>
       <c r="L41" t="n">
-        <v>45.0657531018478</v>
+        <v>378.6320132049239</v>
       </c>
       <c r="M41" t="n">
-        <v>136.9571760975455</v>
+        <v>76.13566480250239</v>
       </c>
       <c r="N41" t="n">
-        <v>615.6683555774596</v>
+        <v>81.15420461578952</v>
       </c>
       <c r="O41" t="n">
         <v>560.7275066024426</v>
@@ -37800,10 +37800,10 @@
         <v>446.0856713078936</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>257.3108789082455</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.458523245391419</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>17.55471475215609</v>
+        <v>31.35589748105261</v>
       </c>
       <c r="L42" t="n">
-        <v>61.62171742978444</v>
+        <v>543.7141663242813</v>
       </c>
       <c r="M42" t="n">
         <v>615.6683555774596</v>
       </c>
       <c r="N42" t="n">
-        <v>435.7845633365964</v>
+        <v>615.6683555774596</v>
       </c>
       <c r="O42" t="n">
         <v>587.0447671424574</v>
       </c>
       <c r="P42" t="n">
-        <v>458.3479903248053</v>
+        <v>44.34639109288703</v>
       </c>
       <c r="Q42" t="n">
-        <v>261.7758246323382</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,19 +38025,19 @@
         <v>588.0253320174334</v>
       </c>
       <c r="M44" t="n">
-        <v>76.13566480250239</v>
+        <v>212.3264763347152</v>
       </c>
       <c r="N44" t="n">
-        <v>81.15420461578952</v>
+        <v>615.6683555774596</v>
       </c>
       <c r="O44" t="n">
         <v>560.7275066024426</v>
       </c>
       <c r="P44" t="n">
-        <v>441.1414342706033</v>
+        <v>27.74735068496616</v>
       </c>
       <c r="Q44" t="n">
-        <v>257.3108789082455</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>17.55471475215609</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L45" t="n">
         <v>543.7141663242813</v>
       </c>
       <c r="M45" t="n">
-        <v>215.4679390744379</v>
+        <v>123.6107311154603</v>
       </c>
       <c r="N45" t="n">
-        <v>615.6683555774596</v>
+        <v>101.9449307877463</v>
       </c>
       <c r="O45" t="n">
         <v>587.0447671424574</v>
@@ -38116,7 +38116,7 @@
         <v>458.3479903248053</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>261.7758246323382</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
